--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>2.475510597229004</v>
+        <v>0.5379009246826172</v>
       </c>
       <c r="D2" t="n">
-        <v>67.488</v>
+        <v>67.27800000000001</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1.654709339141846</v>
+        <v>0.16324782371521</v>
       </c>
       <c r="D3" t="n">
-        <v>39.201</v>
+        <v>38.991</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>7.772295713424683</v>
+        <v>1.078111886978149</v>
       </c>
       <c r="D4" t="n">
-        <v>56.383</v>
+        <v>56.173</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8217592239379883</v>
+        <v>0.3983108997344971</v>
       </c>
       <c r="D5" t="n">
-        <v>73.455</v>
+        <v>73.245</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2717444896697998</v>
+        <v>0.1716568470001221</v>
       </c>
       <c r="D6" t="n">
-        <v>6.203</v>
+        <v>6.017</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.237093448638916</v>
+        <v>0.171022891998291</v>
       </c>
       <c r="D7" t="n">
-        <v>6.203</v>
+        <v>6.017</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4137594699859619</v>
+        <v>0.4400262832641602</v>
       </c>
       <c r="D8" t="n">
-        <v>6.245</v>
+        <v>54.218</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3937838077545166</v>
+        <v>0.3820259571075439</v>
       </c>
       <c r="D9" t="n">
-        <v>6.245</v>
+        <v>71.29000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2821812629699707</v>
+        <v>0.171309232711792</v>
       </c>
       <c r="D10" t="n">
-        <v>8.182</v>
+        <v>7.972</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4159917831420898</v>
+        <v>0.1744680404663086</v>
       </c>
       <c r="D11" t="n">
-        <v>8.182</v>
+        <v>7.972</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4415333271026611</v>
+        <v>0.3911838531494141</v>
       </c>
       <c r="D12" t="n">
-        <v>8.224</v>
+        <v>56.173</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4109103679656982</v>
+        <v>0.3939950466156006</v>
       </c>
       <c r="D13" t="n">
-        <v>8.224</v>
+        <v>73.245</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3981716632843018</v>
+        <v>0.1747791767120361</v>
       </c>
       <c r="D14" t="n">
-        <v>64.608</v>
+        <v>64.398</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4059069156646729</v>
+        <v>0.1765859127044678</v>
       </c>
       <c r="D15" t="n">
-        <v>523.016</v>
+        <v>522.806</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7873961925506592</v>
+        <v>0.5177819728851318</v>
       </c>
       <c r="D16" t="n">
-        <v>58.303</v>
+        <v>58.093</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.001605272293091</v>
+        <v>0.7613980770111084</v>
       </c>
       <c r="D17" t="n">
-        <v>522.878</v>
+        <v>522.668</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3967318534851074</v>
+        <v>0.184607982635498</v>
       </c>
       <c r="D18" t="n">
-        <v>6.401</v>
+        <v>6.215</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4099702835083008</v>
+        <v>0.184988260269165</v>
       </c>
       <c r="D19" t="n">
-        <v>6.401</v>
+        <v>6.215</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4807882308959961</v>
+        <v>0.4199428558349609</v>
       </c>
       <c r="D20" t="n">
-        <v>6.263</v>
+        <v>56.138</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5623908042907715</v>
+        <v>0.7898678779602051</v>
       </c>
       <c r="D21" t="n">
-        <v>6.263</v>
+        <v>520.713</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3159923553466797</v>
+        <v>0.1952550411224365</v>
       </c>
       <c r="D22" t="n">
-        <v>8.380000000000001</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2858831882476807</v>
+        <v>0.1950888633728027</v>
       </c>
       <c r="D23" t="n">
-        <v>8.380000000000001</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5413427352905273</v>
+        <v>0.4299178123474121</v>
       </c>
       <c r="D24" t="n">
-        <v>8.242000000000001</v>
+        <v>58.093</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5339889526367188</v>
+        <v>0.5953450202941895</v>
       </c>
       <c r="D25" t="n">
-        <v>8.242000000000001</v>
+        <v>522.668</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5379009246826172</v>
+        <v>0.5203046798706055</v>
       </c>
       <c r="D2" t="n">
-        <v>67.27800000000001</v>
+        <v>96.02800000000001</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16324782371521</v>
+        <v>0.5026030540466309</v>
       </c>
       <c r="D3" t="n">
-        <v>38.991</v>
+        <v>102.163</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.078111886978149</v>
+        <v>1.523584127426147</v>
       </c>
       <c r="D4" t="n">
-        <v>56.173</v>
+        <v>162.083</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3983108997344971</v>
+        <v>1.497635841369629</v>
       </c>
       <c r="D5" t="n">
-        <v>73.245</v>
+        <v>179.155</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1716568470001221</v>
+        <v>0.6333060264587402</v>
       </c>
       <c r="D6" t="n">
-        <v>6.017</v>
+        <v>94.07299999999999</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.171022891998291</v>
+        <v>0.6164705753326416</v>
       </c>
       <c r="D7" t="n">
-        <v>6.017</v>
+        <v>100.208</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4400262832641602</v>
+        <v>1.77980899810791</v>
       </c>
       <c r="D8" t="n">
-        <v>54.218</v>
+        <v>160.128</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3820259571075439</v>
+        <v>1.54308009147644</v>
       </c>
       <c r="D9" t="n">
-        <v>71.29000000000001</v>
+        <v>177.2</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.171309232711792</v>
+        <v>0.5023329257965088</v>
       </c>
       <c r="D10" t="n">
-        <v>7.972</v>
+        <v>96.02800000000001</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1744680404663086</v>
+        <v>0.5119597911834717</v>
       </c>
       <c r="D11" t="n">
-        <v>7.972</v>
+        <v>102.163</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3911838531494141</v>
+        <v>1.497704982757568</v>
       </c>
       <c r="D12" t="n">
-        <v>56.173</v>
+        <v>162.083</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3939950466156006</v>
+        <v>1.444967985153198</v>
       </c>
       <c r="D13" t="n">
-        <v>73.245</v>
+        <v>179.155</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1747791767120361</v>
+        <v>0.530958890914917</v>
       </c>
       <c r="D14" t="n">
-        <v>64.398</v>
+        <v>93.148</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1765859127044678</v>
+        <v>0.5160877704620361</v>
       </c>
       <c r="D15" t="n">
-        <v>522.806</v>
+        <v>551.556</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5177819728851318</v>
+        <v>1.53094482421875</v>
       </c>
       <c r="D16" t="n">
-        <v>58.093</v>
+        <v>164.003</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7613980770111084</v>
+        <v>1.758097887039185</v>
       </c>
       <c r="D17" t="n">
-        <v>522.668</v>
+        <v>628.578</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.184607982635498</v>
+        <v>0.525813102722168</v>
       </c>
       <c r="D18" t="n">
-        <v>6.215</v>
+        <v>91.193</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.184988260269165</v>
+        <v>0.5411088466644287</v>
       </c>
       <c r="D19" t="n">
-        <v>6.215</v>
+        <v>549.601</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4199428558349609</v>
+        <v>1.468979120254517</v>
       </c>
       <c r="D20" t="n">
-        <v>56.138</v>
+        <v>162.048</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7898678779602051</v>
+        <v>1.67209005355835</v>
       </c>
       <c r="D21" t="n">
-        <v>520.713</v>
+        <v>626.623</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1952550411224365</v>
+        <v>0.5075719356536865</v>
       </c>
       <c r="D22" t="n">
-        <v>8.17</v>
+        <v>93.148</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1950888633728027</v>
+        <v>0.5136997699737549</v>
       </c>
       <c r="D23" t="n">
-        <v>8.17</v>
+        <v>551.556</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4299178123474121</v>
+        <v>1.248443841934204</v>
       </c>
       <c r="D24" t="n">
-        <v>58.093</v>
+        <v>164.003</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5953450202941895</v>
+        <v>1.558910846710205</v>
       </c>
       <c r="D25" t="n">
-        <v>522.668</v>
+        <v>628.578</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5203046798706055</v>
+        <v>0.515941858291626</v>
       </c>
       <c r="D2" t="n">
-        <v>96.02800000000001</v>
+        <v>128.842</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5026030540466309</v>
+        <v>0.5239689350128174</v>
       </c>
       <c r="D3" t="n">
-        <v>102.163</v>
+        <v>137.031</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.523584127426147</v>
+        <v>1.311417102813721</v>
       </c>
       <c r="D4" t="n">
-        <v>162.083</v>
+        <v>191.974</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.497635841369629</v>
+        <v>1.396142959594727</v>
       </c>
       <c r="D5" t="n">
-        <v>179.155</v>
+        <v>214.043</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6333060264587402</v>
+        <v>0.4934520721435547</v>
       </c>
       <c r="D6" t="n">
-        <v>94.07299999999999</v>
+        <v>125.391</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6164705753326416</v>
+        <v>0.5071449279785156</v>
       </c>
       <c r="D7" t="n">
-        <v>100.208</v>
+        <v>133.58</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.77980899810791</v>
+        <v>1.439751386642456</v>
       </c>
       <c r="D8" t="n">
-        <v>160.128</v>
+        <v>188.523</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.54308009147644</v>
+        <v>1.420742988586426</v>
       </c>
       <c r="D9" t="n">
-        <v>177.2</v>
+        <v>210.592</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5023329257965088</v>
+        <v>0.5295562744140625</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>128.842</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5119597911834717</v>
+        <v>0.5230071544647217</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>137.031</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.497704982757568</v>
+        <v>1.380073070526123</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>191.974</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.444967985153198</v>
+        <v>1.24128794670105</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>214.043</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530958890914917</v>
+        <v>0.514340877532959</v>
       </c>
       <c r="D14" t="n">
-        <v>93.148</v>
+        <v>129.071</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5160877704620361</v>
+        <v>0.5057601928710938</v>
       </c>
       <c r="D15" t="n">
-        <v>551.556</v>
+        <v>1159.902</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.53094482421875</v>
+        <v>1.275989055633545</v>
       </c>
       <c r="D16" t="n">
-        <v>164.003</v>
+        <v>197.461</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.758097887039185</v>
+        <v>1.759685039520264</v>
       </c>
       <c r="D17" t="n">
-        <v>628.578</v>
+        <v>1236.944</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.525813102722168</v>
+        <v>0.5284638404846191</v>
       </c>
       <c r="D18" t="n">
-        <v>91.193</v>
+        <v>125.62</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5411088466644287</v>
+        <v>0.5205631256103516</v>
       </c>
       <c r="D19" t="n">
-        <v>549.601</v>
+        <v>1156.451</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.468979120254517</v>
+        <v>1.209989786148071</v>
       </c>
       <c r="D20" t="n">
-        <v>162.048</v>
+        <v>194.01</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.67209005355835</v>
+        <v>1.704922199249268</v>
       </c>
       <c r="D21" t="n">
-        <v>626.623</v>
+        <v>1233.493</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5075719356536865</v>
+        <v>0.5111749172210693</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>129.071</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5136997699737549</v>
+        <v>0.537172794342041</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>1159.902</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.248443841934204</v>
+        <v>1.377485990524292</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>197.461</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.558910846710205</v>
+        <v>1.610472917556763</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>1236.944</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5203046798706055</v>
+        <v>0.5093879699707031</v>
       </c>
       <c r="D2" t="n">
-        <v>96.02800000000001</v>
+        <v>97.524</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5026030540466309</v>
+        <v>0.5025091171264648</v>
       </c>
       <c r="D3" t="n">
-        <v>102.163</v>
+        <v>103.659</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.523584127426147</v>
+        <v>1.612729787826538</v>
       </c>
       <c r="D4" t="n">
-        <v>162.083</v>
+        <v>163.579</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.497635841369629</v>
+        <v>1.633939981460571</v>
       </c>
       <c r="D5" t="n">
-        <v>179.155</v>
+        <v>180.651</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6333060264587402</v>
+        <v>0.5227482318878174</v>
       </c>
       <c r="D6" t="n">
         <v>94.07299999999999</v>
@@ -545,7 +545,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6164705753326416</v>
+        <v>0.5339899063110352</v>
       </c>
       <c r="D7" t="n">
         <v>100.208</v>
@@ -561,7 +561,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.77980899810791</v>
+        <v>1.52399730682373</v>
       </c>
       <c r="D8" t="n">
         <v>160.128</v>
@@ -577,7 +577,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.54308009147644</v>
+        <v>1.471769094467163</v>
       </c>
       <c r="D9" t="n">
         <v>177.2</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5023329257965088</v>
+        <v>0.5023899078369141</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>97.524</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5119597911834717</v>
+        <v>0.5053210258483887</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>103.659</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.497704982757568</v>
+        <v>1.627687931060791</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>163.579</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.444967985153198</v>
+        <v>1.508959054946899</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>180.651</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530958890914917</v>
+        <v>0.5305490493774414</v>
       </c>
       <c r="D14" t="n">
-        <v>93.148</v>
+        <v>94.64400000000001</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5160877704620361</v>
+        <v>0.5170671939849854</v>
       </c>
       <c r="D15" t="n">
-        <v>551.556</v>
+        <v>553.052</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.53094482421875</v>
+        <v>1.505330085754395</v>
       </c>
       <c r="D16" t="n">
-        <v>164.003</v>
+        <v>165.499</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.758097887039185</v>
+        <v>1.666504859924316</v>
       </c>
       <c r="D17" t="n">
-        <v>628.578</v>
+        <v>630.074</v>
       </c>
     </row>
     <row r="18">
@@ -721,7 +721,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.525813102722168</v>
+        <v>0.5172579288482666</v>
       </c>
       <c r="D18" t="n">
         <v>91.193</v>
@@ -737,7 +737,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5411088466644287</v>
+        <v>0.5049729347229004</v>
       </c>
       <c r="D19" t="n">
         <v>549.601</v>
@@ -753,7 +753,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.468979120254517</v>
+        <v>1.469343900680542</v>
       </c>
       <c r="D20" t="n">
         <v>162.048</v>
@@ -769,7 +769,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.67209005355835</v>
+        <v>2.172096729278564</v>
       </c>
       <c r="D21" t="n">
         <v>626.623</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5075719356536865</v>
+        <v>0.5494999885559082</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>94.64400000000001</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5136997699737549</v>
+        <v>0.5012319087982178</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>553.052</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.248443841934204</v>
+        <v>1.486788034439087</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>165.499</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.558910846710205</v>
+        <v>1.669088125228882</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>630.074</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5203046798706055</v>
+        <v>0.4971609115600586</v>
       </c>
       <c r="D2" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5026030540466309</v>
+        <v>0.5088331699371338</v>
       </c>
       <c r="D3" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.523584127426147</v>
+        <v>1.465614080429077</v>
       </c>
       <c r="D4" t="n">
-        <v>162.083</v>
+        <v>160.726</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.497635841369629</v>
+        <v>1.48030161857605</v>
       </c>
       <c r="D5" t="n">
-        <v>179.155</v>
+        <v>191.681</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6333060264587402</v>
+        <v>0.5028741359710693</v>
       </c>
       <c r="D6" t="n">
-        <v>94.07299999999999</v>
+        <v>92.167</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6164705753326416</v>
+        <v>0.5368146896362305</v>
       </c>
       <c r="D7" t="n">
-        <v>100.208</v>
+        <v>112.525</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.77980899810791</v>
+        <v>1.418426752090454</v>
       </c>
       <c r="D8" t="n">
-        <v>160.128</v>
+        <v>158.771</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.54308009147644</v>
+        <v>1.312229156494141</v>
       </c>
       <c r="D9" t="n">
-        <v>177.2</v>
+        <v>189.726</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5023329257965088</v>
+        <v>0.5123651027679443</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5119597911834717</v>
+        <v>0.4948520660400391</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.497704982757568</v>
+        <v>1.388017892837524</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>160.726</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.444967985153198</v>
+        <v>1.442285060882568</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>191.681</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530958890914917</v>
+        <v>0.5309329032897949</v>
       </c>
       <c r="D14" t="n">
-        <v>93.148</v>
+        <v>91.369</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5160877704620361</v>
+        <v>0.5209789276123047</v>
       </c>
       <c r="D15" t="n">
-        <v>551.556</v>
+        <v>499.941</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.53094482421875</v>
+        <v>1.397050142288208</v>
       </c>
       <c r="D16" t="n">
-        <v>164.003</v>
+        <v>162.54</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.758097887039185</v>
+        <v>1.381432771682739</v>
       </c>
       <c r="D17" t="n">
-        <v>628.578</v>
+        <v>576.9829999999999</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.525813102722168</v>
+        <v>0.5089271068572998</v>
       </c>
       <c r="D18" t="n">
-        <v>91.193</v>
+        <v>89.414</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5411088466644287</v>
+        <v>0.5034849643707275</v>
       </c>
       <c r="D19" t="n">
-        <v>549.601</v>
+        <v>497.986</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.468979120254517</v>
+        <v>1.425249099731445</v>
       </c>
       <c r="D20" t="n">
-        <v>162.048</v>
+        <v>160.585</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.67209005355835</v>
+        <v>1.4355309009552</v>
       </c>
       <c r="D21" t="n">
-        <v>626.623</v>
+        <v>575.028</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5075719356536865</v>
+        <v>0.5053219795227051</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>91.369</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5136997699737549</v>
+        <v>0.5052361488342285</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>499.941</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.248443841934204</v>
+        <v>1.282198190689087</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>162.54</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.558910846710205</v>
+        <v>1.377367973327637</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>576.9829999999999</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5093879699707031</v>
+        <v>0.5233097076416016</v>
       </c>
       <c r="D2" t="n">
-        <v>97.524</v>
+        <v>95.61799999999999</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5025091171264648</v>
+        <v>0.5116958618164062</v>
       </c>
       <c r="D3" t="n">
-        <v>103.659</v>
+        <v>115.976</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.612729787826538</v>
+        <v>1.402327060699463</v>
       </c>
       <c r="D4" t="n">
-        <v>163.579</v>
+        <v>162.222</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.633939981460571</v>
+        <v>1.477024078369141</v>
       </c>
       <c r="D5" t="n">
-        <v>180.651</v>
+        <v>193.177</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5227482318878174</v>
+        <v>0.5219731330871582</v>
       </c>
       <c r="D6" t="n">
-        <v>94.07299999999999</v>
+        <v>92.167</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5339899063110352</v>
+        <v>0.5203888416290283</v>
       </c>
       <c r="D7" t="n">
-        <v>100.208</v>
+        <v>112.525</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.52399730682373</v>
+        <v>1.394032955169678</v>
       </c>
       <c r="D8" t="n">
-        <v>160.128</v>
+        <v>158.771</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.471769094467163</v>
+        <v>1.440118074417114</v>
       </c>
       <c r="D9" t="n">
-        <v>177.2</v>
+        <v>189.726</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5023899078369141</v>
+        <v>0.521277904510498</v>
       </c>
       <c r="D10" t="n">
-        <v>97.524</v>
+        <v>95.61799999999999</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5053210258483887</v>
+        <v>0.5036888122558594</v>
       </c>
       <c r="D11" t="n">
-        <v>103.659</v>
+        <v>115.976</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.627687931060791</v>
+        <v>1.463878870010376</v>
       </c>
       <c r="D12" t="n">
-        <v>163.579</v>
+        <v>162.222</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.508959054946899</v>
+        <v>1.393223285675049</v>
       </c>
       <c r="D13" t="n">
-        <v>180.651</v>
+        <v>193.177</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5305490493774414</v>
+        <v>0.5246889591217041</v>
       </c>
       <c r="D14" t="n">
-        <v>94.64400000000001</v>
+        <v>92.86499999999999</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5170671939849854</v>
+        <v>0.5255947113037109</v>
       </c>
       <c r="D15" t="n">
-        <v>553.052</v>
+        <v>501.437</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.505330085754395</v>
+        <v>1.424545049667358</v>
       </c>
       <c r="D16" t="n">
-        <v>165.499</v>
+        <v>164.036</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.666504859924316</v>
+        <v>1.422030210494995</v>
       </c>
       <c r="D17" t="n">
-        <v>630.074</v>
+        <v>578.479</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5172579288482666</v>
+        <v>0.5136830806732178</v>
       </c>
       <c r="D18" t="n">
-        <v>91.193</v>
+        <v>89.414</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5049729347229004</v>
+        <v>0.5224699974060059</v>
       </c>
       <c r="D19" t="n">
-        <v>549.601</v>
+        <v>497.986</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.469343900680542</v>
+        <v>1.289539098739624</v>
       </c>
       <c r="D20" t="n">
-        <v>162.048</v>
+        <v>160.585</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>2.172096729278564</v>
+        <v>1.346943140029907</v>
       </c>
       <c r="D21" t="n">
-        <v>626.623</v>
+        <v>575.028</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5494999885559082</v>
+        <v>0.5272190570831299</v>
       </c>
       <c r="D22" t="n">
-        <v>94.64400000000001</v>
+        <v>92.86499999999999</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5012319087982178</v>
+        <v>0.5242269039154053</v>
       </c>
       <c r="D23" t="n">
-        <v>553.052</v>
+        <v>501.437</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.486788034439087</v>
+        <v>1.328134298324585</v>
       </c>
       <c r="D24" t="n">
-        <v>165.499</v>
+        <v>164.036</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.669088125228882</v>
+        <v>1.42091703414917</v>
       </c>
       <c r="D25" t="n">
-        <v>630.074</v>
+        <v>578.479</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.515941858291626</v>
+        <v>0.5057170391082764</v>
       </c>
       <c r="D2" t="n">
-        <v>128.842</v>
+        <v>124.462</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5239689350128174</v>
+        <v>0.5055422782897949</v>
       </c>
       <c r="D3" t="n">
-        <v>137.031</v>
+        <v>164.363</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.311417102813721</v>
+        <v>1.236247062683105</v>
       </c>
       <c r="D4" t="n">
-        <v>191.974</v>
+        <v>189.106</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.396142959594727</v>
+        <v>1.484078884124756</v>
       </c>
       <c r="D5" t="n">
-        <v>214.043</v>
+        <v>241.564</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4934520721435547</v>
+        <v>0.5184168815612793</v>
       </c>
       <c r="D6" t="n">
-        <v>125.391</v>
+        <v>121.011</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5071449279785156</v>
+        <v>0.5157082080841064</v>
       </c>
       <c r="D7" t="n">
-        <v>133.58</v>
+        <v>160.912</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.439751386642456</v>
+        <v>1.444288015365601</v>
       </c>
       <c r="D8" t="n">
-        <v>188.523</v>
+        <v>185.655</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.420742988586426</v>
+        <v>1.38774585723877</v>
       </c>
       <c r="D9" t="n">
-        <v>210.592</v>
+        <v>238.113</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5295562744140625</v>
+        <v>0.5167872905731201</v>
       </c>
       <c r="D10" t="n">
-        <v>128.842</v>
+        <v>124.462</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5230071544647217</v>
+        <v>0.5133922100067139</v>
       </c>
       <c r="D11" t="n">
-        <v>137.031</v>
+        <v>164.363</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.380073070526123</v>
+        <v>1.328571081161499</v>
       </c>
       <c r="D12" t="n">
-        <v>191.974</v>
+        <v>189.106</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.24128794670105</v>
+        <v>1.545685052871704</v>
       </c>
       <c r="D13" t="n">
-        <v>214.043</v>
+        <v>241.564</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.514340877532959</v>
+        <v>0.514585018157959</v>
       </c>
       <c r="D14" t="n">
-        <v>129.071</v>
+        <v>125.106</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5057601928710938</v>
+        <v>0.5199601650238037</v>
       </c>
       <c r="D15" t="n">
-        <v>1159.902</v>
+        <v>943.059</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.275989055633545</v>
+        <v>1.371779203414917</v>
       </c>
       <c r="D16" t="n">
-        <v>197.461</v>
+        <v>174.565</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.759685039520264</v>
+        <v>1.467875957489014</v>
       </c>
       <c r="D17" t="n">
-        <v>1236.944</v>
+        <v>672.716</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5284638404846191</v>
+        <v>0.5248301029205322</v>
       </c>
       <c r="D18" t="n">
-        <v>125.62</v>
+        <v>121.655</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5205631256103516</v>
+        <v>0.4999959468841553</v>
       </c>
       <c r="D19" t="n">
-        <v>1156.451</v>
+        <v>939.6079999999999</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.209989786148071</v>
+        <v>1.324290752410889</v>
       </c>
       <c r="D20" t="n">
-        <v>194.01</v>
+        <v>171.114</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.704922199249268</v>
+        <v>1.348283052444458</v>
       </c>
       <c r="D21" t="n">
-        <v>1233.493</v>
+        <v>669.265</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5111749172210693</v>
+        <v>0.5155372619628906</v>
       </c>
       <c r="D22" t="n">
-        <v>129.071</v>
+        <v>125.106</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.537172794342041</v>
+        <v>0.510566234588623</v>
       </c>
       <c r="D23" t="n">
-        <v>1159.902</v>
+        <v>943.059</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.377485990524292</v>
+        <v>1.436439990997314</v>
       </c>
       <c r="D24" t="n">
-        <v>197.461</v>
+        <v>174.565</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.610472917556763</v>
+        <v>1.568870782852173</v>
       </c>
       <c r="D25" t="n">
-        <v>1236.944</v>
+        <v>672.716</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5203046798706055</v>
+        <v>0.5154211521148682</v>
       </c>
       <c r="D2" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5026030540466309</v>
+        <v>0.5328238010406494</v>
       </c>
       <c r="D3" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.523584127426147</v>
+        <v>1.373801946640015</v>
       </c>
       <c r="D4" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.497635841369629</v>
+        <v>1.342222929000854</v>
       </c>
       <c r="D5" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6333060264587402</v>
+        <v>0.5194339752197266</v>
       </c>
       <c r="D6" t="n">
-        <v>94.07299999999999</v>
+        <v>92.167</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6164705753326416</v>
+        <v>0.5341548919677734</v>
       </c>
       <c r="D7" t="n">
-        <v>100.208</v>
+        <v>112.525</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.77980899810791</v>
+        <v>1.258888959884644</v>
       </c>
       <c r="D8" t="n">
-        <v>160.128</v>
+        <v>185.655</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.54308009147644</v>
+        <v>1.392657995223999</v>
       </c>
       <c r="D9" t="n">
-        <v>177.2</v>
+        <v>238.113</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5023329257965088</v>
+        <v>0.5194931030273438</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5119597911834717</v>
+        <v>0.5211381912231445</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.497704982757568</v>
+        <v>1.394170761108398</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.444967985153198</v>
+        <v>1.395331859588623</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530958890914917</v>
+        <v>0.5105741024017334</v>
       </c>
       <c r="D14" t="n">
-        <v>93.148</v>
+        <v>91.336</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5160877704620361</v>
+        <v>0.5165822505950928</v>
       </c>
       <c r="D15" t="n">
-        <v>551.556</v>
+        <v>515.522</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.53094482421875</v>
+        <v>1.436790943145752</v>
       </c>
       <c r="D16" t="n">
-        <v>164.003</v>
+        <v>162.565</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.758097887039185</v>
+        <v>1.432955741882324</v>
       </c>
       <c r="D17" t="n">
-        <v>628.578</v>
+        <v>592.564</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.525813102722168</v>
+        <v>0.5085518360137939</v>
       </c>
       <c r="D18" t="n">
-        <v>91.193</v>
+        <v>89.381</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5411088466644287</v>
+        <v>0.5193841457366943</v>
       </c>
       <c r="D19" t="n">
-        <v>549.601</v>
+        <v>513.567</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.468979120254517</v>
+        <v>1.405679941177368</v>
       </c>
       <c r="D20" t="n">
-        <v>162.048</v>
+        <v>160.61</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.67209005355835</v>
+        <v>1.406741857528687</v>
       </c>
       <c r="D21" t="n">
-        <v>626.623</v>
+        <v>590.609</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5075719356536865</v>
+        <v>0.5023078918457031</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>91.336</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5136997699737549</v>
+        <v>0.5228290557861328</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>515.522</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.248443841934204</v>
+        <v>1.392751932144165</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>162.565</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.558910846710205</v>
+        <v>1.409122943878174</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>592.564</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5203046798706055</v>
+        <v>0.4968421459197998</v>
       </c>
       <c r="D2" t="n">
-        <v>96.02800000000001</v>
+        <v>122.966</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5026030540466309</v>
+        <v>0.5139729976654053</v>
       </c>
       <c r="D3" t="n">
-        <v>102.163</v>
+        <v>162.867</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.523584127426147</v>
+        <v>1.433125019073486</v>
       </c>
       <c r="D4" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.497635841369629</v>
+        <v>1.472662925720215</v>
       </c>
       <c r="D5" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6333060264587402</v>
+        <v>0.5200951099395752</v>
       </c>
       <c r="D6" t="n">
-        <v>94.07299999999999</v>
+        <v>121.011</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6164705753326416</v>
+        <v>0.5175480842590332</v>
       </c>
       <c r="D7" t="n">
-        <v>100.208</v>
+        <v>160.912</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.77980899810791</v>
+        <v>1.342278003692627</v>
       </c>
       <c r="D8" t="n">
-        <v>160.128</v>
+        <v>185.655</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.54308009147644</v>
+        <v>1.507030010223389</v>
       </c>
       <c r="D9" t="n">
-        <v>177.2</v>
+        <v>238.113</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5023329257965088</v>
+        <v>0.5188241004943848</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>122.966</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5119597911834717</v>
+        <v>0.5190131664276123</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>162.867</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.497704982757568</v>
+        <v>1.444316148757935</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.444967985153198</v>
+        <v>1.46853232383728</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.530958890914917</v>
+        <v>0.5294058322906494</v>
       </c>
       <c r="D14" t="n">
-        <v>93.148</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5160877704620361</v>
+        <v>0.501680850982666</v>
       </c>
       <c r="D15" t="n">
-        <v>551.556</v>
+        <v>869.9299999999999</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.53094482421875</v>
+        <v>1.439082384109497</v>
       </c>
       <c r="D16" t="n">
-        <v>164.003</v>
+        <v>193.448</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.758097887039185</v>
+        <v>1.566365957260132</v>
       </c>
       <c r="D17" t="n">
-        <v>628.578</v>
+        <v>946.972</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.525813102722168</v>
+        <v>0.5106489658355713</v>
       </c>
       <c r="D18" t="n">
-        <v>91.193</v>
+        <v>121.745</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5411088466644287</v>
+        <v>0.5131940841674805</v>
       </c>
       <c r="D19" t="n">
-        <v>549.601</v>
+        <v>867.975</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.468979120254517</v>
+        <v>1.46636700630188</v>
       </c>
       <c r="D20" t="n">
-        <v>162.048</v>
+        <v>191.493</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.67209005355835</v>
+        <v>1.549188852310181</v>
       </c>
       <c r="D21" t="n">
-        <v>626.623</v>
+        <v>945.0170000000001</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5075719356536865</v>
+        <v>0.6356730461120605</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5136997699737549</v>
+        <v>0.5132219791412354</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>869.9299999999999</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.248443841934204</v>
+        <v>1.426093101501465</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>193.448</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.558910846710205</v>
+        <v>1.558861970901489</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>946.972</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4971609115600586</v>
+        <v>0.4300620555877686</v>
       </c>
       <c r="D2" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5088331699371338</v>
+        <v>0.4355649948120117</v>
       </c>
       <c r="D3" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.465614080429077</v>
+        <v>1.305814981460571</v>
       </c>
       <c r="D4" t="n">
-        <v>160.726</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.48030161857605</v>
+        <v>1.387733936309814</v>
       </c>
       <c r="D5" t="n">
-        <v>191.681</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5028741359710693</v>
+        <v>0.4208638668060303</v>
       </c>
       <c r="D6" t="n">
-        <v>92.167</v>
+        <v>123.183</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5368146896362305</v>
+        <v>0.4201741218566895</v>
       </c>
       <c r="D7" t="n">
-        <v>112.525</v>
+        <v>163.084</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.418426752090454</v>
+        <v>1.250396251678467</v>
       </c>
       <c r="D8" t="n">
-        <v>158.771</v>
+        <v>187.827</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.312229156494141</v>
+        <v>1.304440975189209</v>
       </c>
       <c r="D9" t="n">
-        <v>189.726</v>
+        <v>240.285</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5123651027679443</v>
+        <v>0.4245090484619141</v>
       </c>
       <c r="D10" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4948520660400391</v>
+        <v>0.4350378513336182</v>
       </c>
       <c r="D11" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.388017892837524</v>
+        <v>1.30714225769043</v>
       </c>
       <c r="D12" t="n">
-        <v>160.726</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.442285060882568</v>
+        <v>1.220362901687622</v>
       </c>
       <c r="D13" t="n">
-        <v>191.681</v>
+        <v>165.08</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5309329032897949</v>
+        <v>0.4048690795898438</v>
       </c>
       <c r="D14" t="n">
-        <v>91.369</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5209789276123047</v>
+        <v>0.5123131275177002</v>
       </c>
       <c r="D15" t="n">
-        <v>499.941</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.397050142288208</v>
+        <v>1.333813905715942</v>
       </c>
       <c r="D16" t="n">
-        <v>162.54</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.381432771682739</v>
+        <v>1.328534126281738</v>
       </c>
       <c r="D17" t="n">
-        <v>576.9829999999999</v>
+        <v>949.144</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5089271068572998</v>
+        <v>0.4323079586029053</v>
       </c>
       <c r="D18" t="n">
-        <v>89.414</v>
+        <v>123.917</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5034849643707275</v>
+        <v>0.4317617416381836</v>
       </c>
       <c r="D19" t="n">
-        <v>497.986</v>
+        <v>870.147</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.425249099731445</v>
+        <v>1.264679908752441</v>
       </c>
       <c r="D20" t="n">
-        <v>160.585</v>
+        <v>193.665</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.4355309009552</v>
+        <v>1.179411888122559</v>
       </c>
       <c r="D21" t="n">
-        <v>575.028</v>
+        <v>947.189</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5053219795227051</v>
+        <v>0.4552221298217773</v>
       </c>
       <c r="D22" t="n">
-        <v>91.369</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5052361488342285</v>
+        <v>0.5590369701385498</v>
       </c>
       <c r="D23" t="n">
-        <v>499.941</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.282198190689087</v>
+        <v>1.364866018295288</v>
       </c>
       <c r="D24" t="n">
-        <v>162.54</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.377367973327637</v>
+        <v>1.278239965438843</v>
       </c>
       <c r="D25" t="n">
-        <v>576.9829999999999</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4369437694549561</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4197099208831787</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.238819122314453</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.2741858959198</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4310538768768311</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4201540946960449</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.342391014099121</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.214886903762817</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4239189624786377</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4254148006439209</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.270617246627808</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.280227899551392</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5068879127502441</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4416460990905762</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.314112901687622</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.352817296981812</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4136931896209717</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.433154821395874</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.231813669204712</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.347656965255737</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4381780624389648</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4375331401824951</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.273088932037354</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.27811074256897</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4229171276092529</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4241001605987549</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.340002059936523</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.288172006607056</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5402188301086426</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4110379219055176</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.283178091049194</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.279849052429199</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4377462863922119</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4310400485992432</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.273103713989258</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.301264762878418</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4224569797515869</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.434337854385376</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.256649017333984</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.319037914276123</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4045236110687256</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4505560398101807</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.355672121047974</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.309920072555542</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4209160804748535</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4365518093109131</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.367105007171631</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.268956899642944</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4261088371276855</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4343290328979492</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.363240003585815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.158133983612061</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4179117679595947</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4193358421325684</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.286957979202271</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.317429780960083</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4299840927124023</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4110157489776611</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.305649280548096</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.221373081207275</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4358499050140381</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4414830207824707</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.301464796066284</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.39720606803894</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4553499221801758</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4233098030090332</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.344592809677124</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.348580121994019</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4305291175842285</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4316930770874023</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.281061887741089</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.392874002456665</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.441493034362793</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4996678829193115</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.20372200012207</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.350918054580688</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4431130886077881</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.43499755859375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.331056833267212</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.318114757537842</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4261438846588135</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4425139427185059</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.306849002838135</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.176575899124146</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4192919731140137</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4123289585113525</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.345516204833984</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.446221113204956</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4003419876098633</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4209990501403809</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.260946035385132</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.325711727142334</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4246573448181152</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4460151195526123</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.250381231307983</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.207241058349609</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5260119438171387</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4152309894561768</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.374658823013306</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.293096780776978</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4233741760253906</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4285929203033447</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.297606945037842</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.226585865020752</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4391229152679443</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5119328498840332</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.307784795761108</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.298020839691162</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4292850494384766</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4264917373657227</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.284536838531494</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.254392147064209</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4282882213592529</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4453792572021484</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7040810585021973</v>
+      </c>
+      <c r="D20" t="n">
+        <v>116.505</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.279345035552979</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4313678741455078</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4175231456756592</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.567224979400635</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.311887979507446</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4260659217834473</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4334588050842285</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.352402210235596</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.316370964050293</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4189319610595703</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4325392246246338</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.262562036514282</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.347043991088867</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4342391490936279</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4352378845214844</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.19872522354126</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.354725122451782</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4340090751647949</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4113490581512451</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.307744026184082</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.353562831878662</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4321112632751465</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4371428489685059</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.332955837249756</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.332772970199585</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4302232265472412</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4174108505249023</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.291056156158447</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.398312091827393</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4300429821014404</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4659619331359863</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.267297029495239</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.261445045471191</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4087040424346924</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4235751628875732</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8424861431121826</v>
+      </c>
+      <c r="D8" t="n">
+        <v>110.667</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.264064073562622</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4228091239929199</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4327502250671387</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.269840717315674</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.287956953048706</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4431121349334717</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.447239875793457</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.256208181381226</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.268588781356812</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4513330459594727</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4469149112701416</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.317873954772949</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.249518156051636</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4129390716552734</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4426770210266113</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.364561796188354</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.396209239959717</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4512193202972412</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4605381488800049</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.257985830307007</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.285891056060791</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5332250595092773</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4409909248352051</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.286813020706177</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.218387842178345</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4280250072479248</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4179749488830566</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.285220861434937</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.307732820510864</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4392049312591553</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4979269504547119</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.27712607383728</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.309478044509888</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4438116550445557</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4090659618377686</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.256623029708862</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.342495918273926</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4401099681854248</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5258958339691162</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.227505922317505</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.304696083068848</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4403500556945801</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4440550804138184</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.333903789520264</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.451109886169434</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4090309143066406</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4248912334442139</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.279778957366943</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.299591064453125</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4142870903015137</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4372620582580566</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.347110986709595</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.218839168548584</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5439331531524658</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4152772426605225</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.261750936508179</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.266762971878052</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4051499366760254</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5411899089813232</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.222685813903809</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.581765174865723</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4502909183502197</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4331240653991699</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.185506105422974</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.279437780380249</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5154211521148682</v>
+        <v>0.4382109642028809</v>
       </c>
       <c r="D2" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5328238010406494</v>
+        <v>0.4355168342590332</v>
       </c>
       <c r="D3" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.373801946640015</v>
+        <v>1.308164119720459</v>
       </c>
       <c r="D4" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.342222929000854</v>
+        <v>1.333482027053833</v>
       </c>
       <c r="D5" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5194339752197266</v>
+        <v>0.4441530704498291</v>
       </c>
       <c r="D6" t="n">
-        <v>92.167</v>
+        <v>123.183</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5341548919677734</v>
+        <v>0.5709068775177002</v>
       </c>
       <c r="D7" t="n">
-        <v>112.525</v>
+        <v>163.084</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.258888959884644</v>
+        <v>1.29724383354187</v>
       </c>
       <c r="D8" t="n">
-        <v>185.655</v>
+        <v>187.827</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.392657995223999</v>
+        <v>1.494497776031494</v>
       </c>
       <c r="D9" t="n">
-        <v>238.113</v>
+        <v>240.285</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5194931030273438</v>
+        <v>0.5478758811950684</v>
       </c>
       <c r="D10" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5211381912231445</v>
+        <v>0.4286131858825684</v>
       </c>
       <c r="D11" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.394170761108398</v>
+        <v>1.311869859695435</v>
       </c>
       <c r="D12" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.395331859588623</v>
+        <v>1.309634923934937</v>
       </c>
       <c r="D13" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5105741024017334</v>
+        <v>0.4394607543945312</v>
       </c>
       <c r="D14" t="n">
-        <v>91.336</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5165822505950928</v>
+        <v>0.4423010349273682</v>
       </c>
       <c r="D15" t="n">
-        <v>515.522</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.436790943145752</v>
+        <v>1.36970591545105</v>
       </c>
       <c r="D16" t="n">
-        <v>162.565</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.432955741882324</v>
+        <v>1.348222970962524</v>
       </c>
       <c r="D17" t="n">
-        <v>592.564</v>
+        <v>949.144</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5085518360137939</v>
+        <v>0.5548160076141357</v>
       </c>
       <c r="D18" t="n">
-        <v>89.381</v>
+        <v>123.917</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5193841457366943</v>
+        <v>0.431121826171875</v>
       </c>
       <c r="D19" t="n">
-        <v>513.567</v>
+        <v>870.147</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.405679941177368</v>
+        <v>1.391441106796265</v>
       </c>
       <c r="D20" t="n">
-        <v>160.61</v>
+        <v>193.665</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.406741857528687</v>
+        <v>1.422306060791016</v>
       </c>
       <c r="D21" t="n">
-        <v>590.609</v>
+        <v>947.189</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5023078918457031</v>
+        <v>0.4302740097045898</v>
       </c>
       <c r="D22" t="n">
-        <v>91.336</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5228290557861328</v>
+        <v>0.4420511722564697</v>
       </c>
       <c r="D23" t="n">
-        <v>515.522</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.392751932144165</v>
+        <v>1.166413068771362</v>
       </c>
       <c r="D24" t="n">
-        <v>162.565</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.409122943878174</v>
+        <v>1.490072965621948</v>
       </c>
       <c r="D25" t="n">
-        <v>592.564</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4265387058258057</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4466660022735596</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.251601934432983</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.422116756439209</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4400420188903809</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.46455979347229</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.351696014404297</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.217674016952515</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4600179195404053</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4360120296478271</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.349292755126953</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.401576042175293</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4460349082946777</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4295568466186523</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.387019634246826</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.40420389175415</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4341371059417725</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4377908706665039</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.318887948989868</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.492640018463135</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.432729959487915</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.458251953125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.356762886047363</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.38088321685791</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4400229454040527</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4556188583374023</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.356367111206055</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.256153106689453</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4388892650604248</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4869058132171631</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.296499013900757</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.369379043579102</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.438446044921875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4444918632507324</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.40374493598938</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.386911869049072</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4280240535736084</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5496730804443359</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.348326206207275</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.424602031707764</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4647979736328125</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6534638404846191</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.21257495880127</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.419639825820923</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4373512268066406</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.436596155166626</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.351035118103027</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.416446924209595</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4510509967803955</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4432461261749268</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.321341991424561</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.357161998748779</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4367852210998535</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.437518835067749</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.405632972717285</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.431116104125977</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4303989410400391</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4459819793701172</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.326310873031616</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.318238973617554</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4351379871368408</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4380490779876709</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.348326206207275</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.433174133300781</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5370869636535645</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4403986930847168</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.349105834960938</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.404857158660889</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4380640983581543</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4350857734680176</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.373002052307129</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.43218731880188</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5551600456237793</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4402470588684082</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.343404054641724</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.292098999023438</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4266419410705566</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4380989074707031</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.204066038131714</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.343707084655762</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5275788307189941</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4403738975524902</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.325778961181641</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.345873832702637</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4443247318267822</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4436259269714355</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.273050785064697</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.375813007354736</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4486310482025146</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5320320129394531</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.315943002700806</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.403932809829712</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4234192371368408</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.450761079788208</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.304582118988037</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.288508176803589</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4680137634277344</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4295978546142578</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.675246000289917</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.332140922546387</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4505090713500977</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4583480358123779</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.341846227645874</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.322421073913574</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4588649272918701</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5465970039367676</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.304130077362061</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.339196920394897</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4300470352172852</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4304249286651611</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.310979843139648</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.363860130310059</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4333028793334961</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4289898872375488</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.200107097625732</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.391838073730469</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4511260986328125</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4227249622344971</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.211865663528442</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.45688796043396</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4411630630493164</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4565420150756836</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.326786041259766</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.392929077148438</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4224040508270264</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4327521324157715</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.123904943466187</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.340468883514404</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.423145055770874</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.445159912109375</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.227831840515137</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.295085906982422</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4446992874145508</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4463307857513428</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.278654813766479</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.319723129272461</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.433542013168335</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4199519157409668</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.207460165023804</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.378879070281982</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4481759071350098</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4438347816467285</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.323797702789307</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.399435997009277</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4413068294525146</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4285328388214111</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.146503925323486</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.323379993438721</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4291510581970215</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4570062160491943</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.270729303359985</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.314460039138794</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4406359195709229</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5378470420837402</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.306677103042603</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.134679079055786</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4296460151672363</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4433920383453369</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.29597806930542</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.404275894165039</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.442615270614624</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4359002113342285</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.38673996925354</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.396607875823975</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4242331981658936</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4586880207061768</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.130556106567383</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.434343814849854</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4400463104248047</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4340131282806396</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.32262396812439</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7421600818634033</v>
+      </c>
+      <c r="D5" t="n">
+        <v>165.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4484720230102539</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4290359020233154</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.285110712051392</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.314404249191284</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.561121940612793</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4433119297027588</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.276007890701294</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.308113813400269</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4629271030426025</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4270977973937988</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.160422801971436</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.347471237182617</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.427711009979248</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4449191093444824</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.364036083221436</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.383439064025879</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5541560649871826</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4868202209472656</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.194723129272461</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.390738010406494</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4509167671203613</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4419560432434082</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.363032102584839</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.331855058670044</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4557540416717529</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5586197376251221</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.344339847564697</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.307868003845215</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4416027069091797</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4387800693511963</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.400370121002197</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.403037071228027</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4326746463775635</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5363669395446777</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.42585277557373</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.469180822372437</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4380760192871094</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4264900684356689</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.096105098724365</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.407942771911621</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4517617225646973</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.453747034072876</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.336300134658813</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.486856937408447</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4968421459197998</v>
+        <v>0.4291720390319824</v>
       </c>
       <c r="D2" t="n">
-        <v>122.966</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5139729976654053</v>
+        <v>0.4331231117248535</v>
       </c>
       <c r="D3" t="n">
-        <v>162.867</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.433125019073486</v>
+        <v>1.419973850250244</v>
       </c>
       <c r="D4" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.472662925720215</v>
+        <v>1.418911933898926</v>
       </c>
       <c r="D5" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5200951099395752</v>
+        <v>0.4323692321777344</v>
       </c>
       <c r="D6" t="n">
-        <v>121.011</v>
+        <v>123.183</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5175480842590332</v>
+        <v>0.4527151584625244</v>
       </c>
       <c r="D7" t="n">
-        <v>160.912</v>
+        <v>163.084</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.342278003692627</v>
+        <v>1.55875825881958</v>
       </c>
       <c r="D8" t="n">
-        <v>185.655</v>
+        <v>187.827</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.507030010223389</v>
+        <v>1.433037996292114</v>
       </c>
       <c r="D9" t="n">
-        <v>238.113</v>
+        <v>240.285</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5188241004943848</v>
+        <v>0.5507731437683105</v>
       </c>
       <c r="D10" t="n">
-        <v>122.966</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5190131664276123</v>
+        <v>0.4664452075958252</v>
       </c>
       <c r="D11" t="n">
-        <v>162.867</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.444316148757935</v>
+        <v>1.516951084136963</v>
       </c>
       <c r="D12" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.46853232383728</v>
+        <v>1.404972791671753</v>
       </c>
       <c r="D13" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5294058322906494</v>
+        <v>0.4505469799041748</v>
       </c>
       <c r="D14" t="n">
-        <v>123.7</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.501680850982666</v>
+        <v>0.4507460594177246</v>
       </c>
       <c r="D15" t="n">
-        <v>869.9299999999999</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.439082384109497</v>
+        <v>1.426390886306763</v>
       </c>
       <c r="D16" t="n">
-        <v>193.448</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.566365957260132</v>
+        <v>1.598204851150513</v>
       </c>
       <c r="D17" t="n">
-        <v>946.972</v>
+        <v>949.144</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5106489658355713</v>
+        <v>0.4814009666442871</v>
       </c>
       <c r="D18" t="n">
-        <v>121.745</v>
+        <v>123.917</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5131940841674805</v>
+        <v>0.4251818656921387</v>
       </c>
       <c r="D19" t="n">
-        <v>867.975</v>
+        <v>870.147</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.46636700630188</v>
+        <v>1.427050828933716</v>
       </c>
       <c r="D20" t="n">
-        <v>191.493</v>
+        <v>193.665</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.549188852310181</v>
+        <v>1.471199989318848</v>
       </c>
       <c r="D21" t="n">
-        <v>945.0170000000001</v>
+        <v>947.189</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6356730461120605</v>
+        <v>0.4343302249908447</v>
       </c>
       <c r="D22" t="n">
-        <v>123.7</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5132219791412354</v>
+        <v>0.4414448738098145</v>
       </c>
       <c r="D23" t="n">
-        <v>869.9299999999999</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.426093101501465</v>
+        <v>1.436547994613647</v>
       </c>
       <c r="D24" t="n">
-        <v>193.448</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.558861970901489</v>
+        <v>1.524181127548218</v>
       </c>
       <c r="D25" t="n">
-        <v>946.972</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4288477897644043</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4868998527526855</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.472395896911621</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.603348970413208</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.438654899597168</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4375569820404053</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.367609024047852</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.357962846755981</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4361641407012939</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4674460887908936</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.553235054016113</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.447935104370117</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4633879661560059</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4345579147338867</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.36736798286438</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.455406904220581</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4413278102874756</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4589800834655762</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.296664714813232</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.549429893493652</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4681398868560791</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4477250576019287</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.437489032745361</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.410666942596436</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4798460006713867</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4449400901794434</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.253613948822021</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.501407861709595</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.44970703125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4570589065551758</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.251587867736816</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.321316003799438</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5499141216278076</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4397721290588379</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.381002902984619</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.48851490020752</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4390997886657715</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4415628910064697</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.62314510345459</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.458192825317383</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5346028804779053</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4574210643768311</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.414573907852173</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.492191076278687</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4357631206512451</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4386880397796631</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.405019760131836</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.48611307144165</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5355780124664307</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4318089485168457</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.386032104492188</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.444732904434204</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4336979389190674</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4467802047729492</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.395745992660522</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.438519716262817</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4538531303405762</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4336929321289062</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.441124200820923</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.465563774108887</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4427070617675781</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4461979866027832</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.489094018936157</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.51933217048645</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4215099811553955</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.451793909072876</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.478509902954102</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.473514080047607</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.424274206161499</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5710251331329346</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.528714179992676</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.571985244750977</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4606671333312988</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4340462684631348</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.426500082015991</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.389989137649536</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4271910190582275</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5854618549346924</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.468926906585693</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.443643093109131</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4487221240997314</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5503060817718506</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.458282947540283</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.238499164581299</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4438409805297852</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.456916332244873</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.415184259414673</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.467287063598633</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.611375093460083</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.134335994720459</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.367408275604248</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.513453006744385</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4283521175384521</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4336671829223633</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.314198017120361</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.504844903945923</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4342031478881836</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4210150241851807</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.43720006942749</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.49863600730896</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.444753885269165</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4302141666412354</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.404103994369507</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.306504964828491</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5443551540374756</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4443221092224121</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.465573787689209</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.385940074920654</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4506478309631348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4284298419952393</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.439167022705078</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.501217842102051</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4481008052825928</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.496445894241333</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.469614028930664</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.541138887405396</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.452711820602417</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4520530700683594</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.395739316940308</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.5362229347229</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4339807033538818</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4387128353118896</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.272106409072876</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.383285999298096</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4313502311706543</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4516658782958984</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.403442859649658</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.293485164642334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4542629718780518</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4421277046203613</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.342897891998291</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.393961906433105</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4221189022064209</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4414761066436768</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.430050134658813</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.462239980697632</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4927430152893066</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4377501010894775</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.389473915100098</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.517491817474365</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4422640800476074</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4412319660186768</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.187900304794312</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.617313861846924</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.540679931640625</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4360179901123047</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.48687219619751</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.395934104919434</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4398269653320312</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4412398338317871</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.457271099090576</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.392302274703979</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4680120944976807</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4423890113830566</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.550845861434937</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.47483229637146</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.444080114364624</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4553821086883545</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.38932991027832</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.65056586265564</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4362847805023193</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7607769966125488</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.190628051757812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.731523275375366</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4409260749816895</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4324860572814941</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.557843923568726</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.497642993927002</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4347150325775146</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5015609264373779</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.383591890335083</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.706532955169678</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4313058853149414</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8044109344482422</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.223191022872925</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.45612621307373</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4351308345794678</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.582761287689209</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.389808893203735</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.462332010269165</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.426461935043335</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4618659019470215</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.395547151565552</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.456813097000122</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4273412227630615</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4628007411956787</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.475910902023315</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.503555059432983</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4461879730224609</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4324958324432373</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.313614130020142</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.505619287490845</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4369437694549561</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4464669227600098</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.457454919815063</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.468065738677979</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4411399364471436</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4647591114044189</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.312302827835083</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.277545213699341</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4279069900512695</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4453151226043701</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.373694896697998</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.255462884902954</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4311878681182861</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4774086475372314</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.463300704956055</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.416107177734375</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4330661296844482</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4478912353515625</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.352344989776611</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.546835899353027</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4386060237884521</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4410591125488281</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.422355890274048</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.582772254943848</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5233097076416016</v>
+        <v>0.427175760269165</v>
       </c>
       <c r="D2" t="n">
-        <v>95.61799999999999</v>
+        <v>97.79000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5116958618164062</v>
+        <v>0.4386439323425293</v>
       </c>
       <c r="D3" t="n">
-        <v>115.976</v>
+        <v>118.148</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.402327060699463</v>
+        <v>1.333731174468994</v>
       </c>
       <c r="D4" t="n">
-        <v>162.222</v>
+        <v>164.394</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.477024078369141</v>
+        <v>1.262324333190918</v>
       </c>
       <c r="D5" t="n">
-        <v>193.177</v>
+        <v>195.349</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5219731330871582</v>
+        <v>0.4349579811096191</v>
       </c>
       <c r="D6" t="n">
-        <v>92.167</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5203888416290283</v>
+        <v>0.442406177520752</v>
       </c>
       <c r="D7" t="n">
-        <v>112.525</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.394032955169678</v>
+        <v>1.480413198471069</v>
       </c>
       <c r="D8" t="n">
-        <v>158.771</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.440118074417114</v>
+        <v>1.382956027984619</v>
       </c>
       <c r="D9" t="n">
-        <v>189.726</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.521277904510498</v>
+        <v>0.4303348064422607</v>
       </c>
       <c r="D10" t="n">
-        <v>95.61799999999999</v>
+        <v>97.79000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5036888122558594</v>
+        <v>0.4386639595031738</v>
       </c>
       <c r="D11" t="n">
-        <v>115.976</v>
+        <v>118.148</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.463878870010376</v>
+        <v>1.344916105270386</v>
       </c>
       <c r="D12" t="n">
-        <v>162.222</v>
+        <v>164.394</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.393223285675049</v>
+        <v>1.353930950164795</v>
       </c>
       <c r="D13" t="n">
-        <v>193.177</v>
+        <v>195.349</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5246889591217041</v>
+        <v>0.4367771148681641</v>
       </c>
       <c r="D14" t="n">
-        <v>92.86499999999999</v>
+        <v>95.03700000000001</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5255947113037109</v>
+        <v>0.4457499980926514</v>
       </c>
       <c r="D15" t="n">
-        <v>501.437</v>
+        <v>503.609</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.424545049667358</v>
+        <v>1.362871170043945</v>
       </c>
       <c r="D16" t="n">
-        <v>164.036</v>
+        <v>166.208</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.422030210494995</v>
+        <v>1.330341815948486</v>
       </c>
       <c r="D17" t="n">
-        <v>578.479</v>
+        <v>580.651</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5136830806732178</v>
+        <v>0.4242250919342041</v>
       </c>
       <c r="D18" t="n">
-        <v>89.414</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5224699974060059</v>
+        <v>0.4279088973999023</v>
       </c>
       <c r="D19" t="n">
-        <v>497.986</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.289539098739624</v>
+        <v>1.151310920715332</v>
       </c>
       <c r="D20" t="n">
-        <v>160.585</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.346943140029907</v>
+        <v>1.305407047271729</v>
       </c>
       <c r="D21" t="n">
-        <v>575.028</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5272190570831299</v>
+        <v>0.4322671890258789</v>
       </c>
       <c r="D22" t="n">
-        <v>92.86499999999999</v>
+        <v>95.03700000000001</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5242269039154053</v>
+        <v>0.4505147933959961</v>
       </c>
       <c r="D23" t="n">
-        <v>501.437</v>
+        <v>503.609</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.328134298324585</v>
+        <v>1.354667901992798</v>
       </c>
       <c r="D24" t="n">
-        <v>164.036</v>
+        <v>166.208</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.42091703414917</v>
+        <v>1.338413953781128</v>
       </c>
       <c r="D25" t="n">
-        <v>578.479</v>
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4500892162322998</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4374878406524658</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.364830017089844</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.338921070098877</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4154329299926758</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4360511302947998</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.27438497543335</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.201941013336182</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4377391338348389</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4392688274383545</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.331235885620117</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.26086688041687</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4432458877563477</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4337379932403564</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.177419900894165</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.37741494178772</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5472409725189209</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4405279159545898</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.291532039642334</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.280642032623291</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4401049613952637</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4308779239654541</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.229570865631104</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.326184272766113</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.447227954864502</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4458291530609131</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.304729700088501</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.289183139801025</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4293699264526367</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4395172595977783</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.363768100738525</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.267030000686646</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4322209358215332</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4196128845214844</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.159085273742676</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.278366088867188</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4463860988616943</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4293780326843262</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.355926036834717</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.335901975631714</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4285240173339844</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4377338886260986</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.348848104476929</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.41386890411377</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4508771896362305</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4343900680541992</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.168128967285156</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.435651779174805</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4438791275024414</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4353129863739014</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.37109899520874</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.353020906448364</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4509029388427734</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4345879554748535</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.365315675735474</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.330255270004272</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4348039627075195</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4309301376342773</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.342098951339722</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.121059894561768</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.439694881439209</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4300911426544189</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.354429960250854</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.30998706817627</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4259171485900879</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4424879550933838</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.321552038192749</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.08623218536377</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4325449466705322</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4532239437103271</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.39792275428772</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.318221092224121</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4347279071807861</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4352152347564697</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.311125755310059</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.304699897766113</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4447622299194336</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4310269355773926</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.316678762435913</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.353989839553833</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4265360832214355</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5660579204559326</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.368842124938965</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.331873893737793</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5564541816711426</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4485187530517578</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.302145957946777</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.165201902389526</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4416399002075195</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4276359081268311</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.371232986450195</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.37529993057251</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4328598976135254</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4432079792022705</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.34271502494812</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.40765905380249</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4332067966461182</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.43733811378479</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.27673602104187</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.295932292938232</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4199221134185791</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4289827346801758</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.308013677597046</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.320490837097168</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4297783374786377</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4403278827667236</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.168581247329712</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.300015211105347</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4284670352935791</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4376451969146729</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.365923881530762</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.256752967834473</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4673628807067871</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4307839870452881</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.324274063110352</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.329836130142212</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.674138069152832</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5408291816711426</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.14808201789856</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.363056182861328</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4354181289672852</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4537882804870605</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.329172849655151</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.357377052307129</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4312450885772705</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4271559715270996</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.328437089920044</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.34232497215271</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5621457099914551</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4371898174285889</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.157176733016968</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.331330060958862</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4275100231170654</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4339656829833984</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.215566158294678</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.297102928161621</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5188789367675781</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5445690155029297</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.33516001701355</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.337502002716064</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4232051372528076</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4768497943878174</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.31110405921936</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.342427015304565</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.432708740234375</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4432880878448486</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.370564222335815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.337233781814575</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4117600917816162</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4357171058654785</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.169803857803345</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.334411144256592</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.430300235748291</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4308030605316162</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.378205060958862</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.216253995895386</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4264042377471924</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4507319927215576</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.356962919235229</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.270506858825684</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.430711030960083</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4398300647735596</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.261621952056885</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.318279981613159</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4452681541442871</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4593470096588135</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.348101139068604</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.384983062744141</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4308726787567139</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4389629364013672</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.267611026763916</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.204034090042114</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4262599945068359</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4306371212005615</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.359633922576904</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.241228103637695</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4450511932373047</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4188082218170166</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.331693887710571</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.249114036560059</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4475340843200684</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4257230758666992</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.32942271232605</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.316482782363892</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4316332340240479</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4305152893066406</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.304249048233032</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.38123893737793</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4496181011199951</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4272401332855225</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.338447093963623</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.351724147796631</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4355711936950684</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4370160102844238</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.337577819824219</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.246489763259888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4450271129608154</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4412479400634766</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.310963869094849</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.278593063354492</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4295978546142578</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4367008209228516</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.359937191009521</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.394613027572632</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4350728988647461</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5625789165496826</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.233119010925293</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.257761001586914</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4329190254211426</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4419949054718018</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.322608947753906</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.32000207901001</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4241359233856201</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4426391124725342</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.148522138595581</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.32544207572937</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -474,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4300620555877686</v>
+        <v>0.4334571361541748</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4355649948120117</v>
+        <v>0.5358579158782959</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.305814981460571</v>
+        <v>1.323701858520508</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.387733936309814</v>
+        <v>1.366426944732666</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4208638668060303</v>
+        <v>0.4402768611907959</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4201741218566895</v>
+        <v>0.4499881267547607</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -570,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.250396251678467</v>
+        <v>1.174016952514648</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.304440975189209</v>
+        <v>1.350830793380737</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4245090484619141</v>
+        <v>0.4405500888824463</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4350378513336182</v>
+        <v>0.4719901084899902</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -634,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.30714225769043</v>
+        <v>1.310286998748779</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -650,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.220362901687622</v>
+        <v>1.356651067733765</v>
       </c>
       <c r="D13" t="n">
-        <v>165.08</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -666,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4048690795898438</v>
+        <v>0.4337472915649414</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -682,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5123131275177002</v>
+        <v>0.4334068298339844</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -698,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.333813905715942</v>
+        <v>1.344320058822632</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.328534126281738</v>
+        <v>1.246824264526367</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -730,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4323079586029053</v>
+        <v>0.4315431118011475</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -746,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4317617416381836</v>
+        <v>0.4336850643157959</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -762,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.264679908752441</v>
+        <v>1.208731174468994</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -778,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.179411888122559</v>
+        <v>1.307239055633545</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4552221298217773</v>
+        <v>0.4360082149505615</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5590369701385498</v>
+        <v>0.4278130531311035</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.364866018295288</v>
+        <v>1.334141969680786</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.278239965438843</v>
+        <v>1.300303936004639</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +899,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4369437694549561</v>
+        <v>0.4276449680328369</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4197099208831787</v>
+        <v>0.4590680599212646</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -931,10 +931,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.238819122314453</v>
+        <v>1.305332899093628</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -947,10 +947,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.2741858959198</v>
+        <v>1.273829936981201</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -963,10 +963,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4310538768768311</v>
+        <v>0.4198009967803955</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -979,10 +979,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4201540946960449</v>
+        <v>0.5375540256500244</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -995,10 +995,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.342391014099121</v>
+        <v>1.334201812744141</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -1011,10 +1011,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.214886903762817</v>
+        <v>1.338446855545044</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4239189624786377</v>
+        <v>0.4303040504455566</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1043,10 +1043,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4254148006439209</v>
+        <v>0.430408239364624</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1059,10 +1059,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.270617246627808</v>
+        <v>1.393709897994995</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1075,10 +1075,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.280227899551392</v>
+        <v>1.313961982727051</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1091,10 +1091,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5068879127502441</v>
+        <v>0.4243130683898926</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -1107,10 +1107,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4416460990905762</v>
+        <v>0.5586140155792236</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -1123,10 +1123,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.314112901687622</v>
+        <v>1.315145969390869</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -1139,10 +1139,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.352817296981812</v>
+        <v>1.325380802154541</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>501.995</v>
       </c>
     </row>
     <row r="18">
@@ -1155,10 +1155,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4136931896209717</v>
+        <v>0.4337131977081299</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -1171,10 +1171,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.433154821395874</v>
+        <v>0.4471738338470459</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -1187,10 +1187,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.231813669204712</v>
+        <v>1.344048976898193</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -1203,10 +1203,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.347656965255737</v>
+        <v>1.342307090759277</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4381780624389648</v>
+        <v>0.4355320930480957</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4375331401824951</v>
+        <v>0.4236617088317871</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.273088932037354</v>
+        <v>1.291934251785278</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.27811074256897</v>
+        <v>1.34235692024231</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1324,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4229171276092529</v>
+        <v>0.5834259986877441</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -1340,10 +1340,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4241001605987549</v>
+        <v>0.5132420063018799</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -1356,10 +1356,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.340002059936523</v>
+        <v>1.348212957382202</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -1372,10 +1372,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.288172006607056</v>
+        <v>1.302402019500732</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -1388,10 +1388,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5402188301086426</v>
+        <v>0.5527868270874023</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -1404,10 +1404,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4110379219055176</v>
+        <v>0.4216687679290771</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -1420,10 +1420,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.283178091049194</v>
+        <v>1.260480165481567</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -1436,10 +1436,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.279849052429199</v>
+        <v>1.339552879333496</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4377462863922119</v>
+        <v>0.4329941272735596</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1468,10 +1468,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4310400485992432</v>
+        <v>0.4385459423065186</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1484,10 +1484,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.273103713989258</v>
+        <v>1.342651844024658</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.301264762878418</v>
+        <v>1.334220886230469</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1516,10 +1516,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4224569797515869</v>
+        <v>0.4238409996032715</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -1532,10 +1532,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.434337854385376</v>
+        <v>0.434506893157959</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -1548,10 +1548,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.256649017333984</v>
+        <v>1.371093988418579</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -1564,10 +1564,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.319037914276123</v>
+        <v>1.323412895202637</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -1580,10 +1580,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4045236110687256</v>
+        <v>0.4284899234771729</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -1596,10 +1596,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4505560398101807</v>
+        <v>0.447735071182251</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -1612,10 +1612,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.355672121047974</v>
+        <v>1.365813970565796</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -1628,10 +1628,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.309920072555542</v>
+        <v>1.31442403793335</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4209160804748535</v>
+        <v>0.4323477745056152</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4365518093109131</v>
+        <v>0.4704558849334717</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.367105007171631</v>
+        <v>1.219714879989624</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.268956899642944</v>
+        <v>1.273849964141846</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4261088371276855</v>
+        <v>0.548224925994873</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4343290328979492</v>
+        <v>0.4322130680084229</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.363240003585815</v>
+        <v>1.293696880340576</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.158133983612061</v>
+        <v>1.314749002456665</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4179117679595947</v>
+        <v>0.4333600997924805</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4193358421325684</v>
+        <v>0.4380772113800049</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.286957979202271</v>
+        <v>1.168441772460938</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -1861,10 +1861,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.317429780960083</v>
+        <v>1.340952157974243</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4299840927124023</v>
+        <v>0.4290318489074707</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4110157489776611</v>
+        <v>0.4766790866851807</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.305649280548096</v>
+        <v>1.337527990341187</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.221373081207275</v>
+        <v>1.2499680519104</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4358499050140381</v>
+        <v>0.4235990047454834</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4414830207824707</v>
+        <v>0.4365019798278809</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.301464796066284</v>
+        <v>1.311811923980713</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.39720606803894</v>
+        <v>1.302717924118042</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4553499221801758</v>
+        <v>0.4368510246276855</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -2021,10 +2021,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4233098030090332</v>
+        <v>0.472369909286499</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -2037,10 +2037,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.344592809677124</v>
+        <v>1.212120771408081</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -2053,10 +2053,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.348580121994019</v>
+        <v>1.331422090530396</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4305291175842285</v>
+        <v>0.4342901706695557</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4316930770874023</v>
+        <v>0.440446138381958</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.281061887741089</v>
+        <v>1.32203197479248</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.392874002456665</v>
+        <v>1.344378232955933</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.441493034362793</v>
+        <v>0.4416031837463379</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -2190,10 +2190,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4996678829193115</v>
+        <v>0.4497771263122559</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -2206,10 +2206,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.20372200012207</v>
+        <v>1.355425596237183</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -2222,10 +2222,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.350918054580688</v>
+        <v>1.390566110610962</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -2238,10 +2238,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4431130886077881</v>
+        <v>0.4238021373748779</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -2254,10 +2254,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.43499755859375</v>
+        <v>0.4295861721038818</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -2270,10 +2270,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.331056833267212</v>
+        <v>1.367031097412109</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -2286,10 +2286,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.318114757537842</v>
+        <v>1.332951784133911</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4261438846588135</v>
+        <v>0.4225742816925049</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4425139427185059</v>
+        <v>0.4236629009246826</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2334,10 +2334,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.306849002838135</v>
+        <v>1.340265274047852</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -2350,10 +2350,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.176575899124146</v>
+        <v>1.217351913452148</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -2366,10 +2366,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4192919731140137</v>
+        <v>0.4222428798675537</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -2382,10 +2382,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4123289585113525</v>
+        <v>0.4388408660888672</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -2398,10 +2398,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.345516204833984</v>
+        <v>1.256565093994141</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -2414,10 +2414,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.446221113204956</v>
+        <v>1.276439666748047</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -2430,10 +2430,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4003419876098633</v>
+        <v>0.4348297119140625</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -2446,10 +2446,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4209990501403809</v>
+        <v>0.4263522624969482</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -2462,10 +2462,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.260946035385132</v>
+        <v>1.320470809936523</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -2478,10 +2478,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.325711727142334</v>
+        <v>1.31821608543396</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4246573448181152</v>
+        <v>0.5487098693847656</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4460151195526123</v>
+        <v>0.4404537677764893</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.250381231307983</v>
+        <v>1.371608972549438</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.207241058349609</v>
+        <v>1.276703834533691</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -2599,10 +2599,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5260119438171387</v>
+        <v>0.432560920715332</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -2615,10 +2615,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4152309894561768</v>
+        <v>0.4321441650390625</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -2631,10 +2631,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.374658823013306</v>
+        <v>1.348572969436646</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -2647,10 +2647,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.293096780776978</v>
+        <v>1.362233877182007</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -2663,10 +2663,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4233741760253906</v>
+        <v>0.4418370723724365</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -2679,10 +2679,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4285929203033447</v>
+        <v>0.4326679706573486</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -2695,10 +2695,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.297606945037842</v>
+        <v>1.3244788646698</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -2711,10 +2711,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.226585865020752</v>
+        <v>1.272403955459595</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4391229152679443</v>
+        <v>0.4260938167572021</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5119328498840332</v>
+        <v>0.439486026763916</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.307784795761108</v>
+        <v>1.356879949569702</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -2775,10 +2775,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.298020839691162</v>
+        <v>1.398423910140991</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -2791,10 +2791,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4292850494384766</v>
+        <v>0.4360523223876953</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -2807,10 +2807,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4264917373657227</v>
+        <v>0.5576999187469482</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -2823,10 +2823,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.284536838531494</v>
+        <v>1.385889053344727</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -2839,10 +2839,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.254392147064209</v>
+        <v>1.326581954956055</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -2855,10 +2855,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4282882213592529</v>
+        <v>0.4343910217285156</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -2871,10 +2871,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4453792572021484</v>
+        <v>0.4280049800872803</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -2887,10 +2887,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7040810585021973</v>
+        <v>1.197293758392334</v>
       </c>
       <c r="D20" t="n">
-        <v>116.505</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -2903,10 +2903,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.279345035552979</v>
+        <v>1.380534172058105</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4313678741455078</v>
+        <v>0.4365832805633545</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4175231456756592</v>
+        <v>0.4328839778900146</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.567224979400635</v>
+        <v>1.409732103347778</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.311887979507446</v>
+        <v>1.319059133529663</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3024,10 +3024,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4260659217834473</v>
+        <v>0.4340121746063232</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3040,10 +3040,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4334588050842285</v>
+        <v>0.4454491138458252</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3056,10 +3056,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.352402210235596</v>
+        <v>1.371507883071899</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -3072,10 +3072,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.316370964050293</v>
+        <v>1.293125152587891</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -3088,10 +3088,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4189319610595703</v>
+        <v>0.4268960952758789</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3104,10 +3104,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4325392246246338</v>
+        <v>0.4199528694152832</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3120,10 +3120,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.262562036514282</v>
+        <v>1.310746669769287</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -3136,10 +3136,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.347043991088867</v>
+        <v>1.233224868774414</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4342391490936279</v>
+        <v>0.4364659786224365</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4352378845214844</v>
+        <v>0.4424540996551514</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3184,10 +3184,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.19872522354126</v>
+        <v>1.307858228683472</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -3200,10 +3200,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.354725122451782</v>
+        <v>1.078534126281738</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -3216,10 +3216,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4340090751647949</v>
+        <v>0.4320590496063232</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -3232,10 +3232,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4113490581512451</v>
+        <v>0.4340751171112061</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -3248,10 +3248,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.307744026184082</v>
+        <v>1.239804983139038</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -3264,10 +3264,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.353562831878662</v>
+        <v>1.339432954788208</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -3280,10 +3280,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4321112632751465</v>
+        <v>0.5407681465148926</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -3296,10 +3296,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4371428489685059</v>
+        <v>0.432675838470459</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -3312,10 +3312,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.332955837249756</v>
+        <v>1.317190170288086</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -3328,10 +3328,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.332772970199585</v>
+        <v>1.339575052261353</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4302232265472412</v>
+        <v>0.4353320598602295</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4174108505249023</v>
+        <v>0.4391608238220215</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.291056156158447</v>
+        <v>1.250208139419556</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.398312091827393</v>
+        <v>1.305804014205933</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3449,10 +3449,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4300429821014404</v>
+        <v>0.4365110397338867</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3465,10 +3465,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4659619331359863</v>
+        <v>0.4514379501342773</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3481,10 +3481,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.267297029495239</v>
+        <v>1.310678958892822</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -3497,10 +3497,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.261445045471191</v>
+        <v>1.278978824615479</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -3513,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4087040424346924</v>
+        <v>0.4352860450744629</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3529,10 +3529,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4235751628875732</v>
+        <v>0.4209752082824707</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3545,10 +3545,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8424861431121826</v>
+        <v>1.333203077316284</v>
       </c>
       <c r="D8" t="n">
-        <v>110.667</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -3561,10 +3561,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.264064073562622</v>
+        <v>1.294917821884155</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4228091239929199</v>
+        <v>0.4380691051483154</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4327502250671387</v>
+        <v>0.4405670166015625</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3609,10 +3609,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.269840717315674</v>
+        <v>1.343469142913818</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -3625,10 +3625,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.287956953048706</v>
+        <v>1.341108083724976</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -3641,10 +3641,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4431121349334717</v>
+        <v>0.4382898807525635</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -3657,10 +3657,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.447239875793457</v>
+        <v>0.4230468273162842</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -3673,10 +3673,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.256208181381226</v>
+        <v>1.125005006790161</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -3689,10 +3689,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.268588781356812</v>
+        <v>1.298246145248413</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -3705,10 +3705,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4513330459594727</v>
+        <v>0.4271359443664551</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -3721,10 +3721,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4469149112701416</v>
+        <v>0.4343962669372559</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -3737,10 +3737,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.317873954772949</v>
+        <v>1.363631010055542</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -3753,10 +3753,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.249518156051636</v>
+        <v>1.411098003387451</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4129390716552734</v>
+        <v>0.5290229320526123</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4426770210266113</v>
+        <v>0.4280421733856201</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.364561796188354</v>
+        <v>1.379992961883545</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.396209239959717</v>
+        <v>1.318768978118896</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3874,10 +3874,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4512193202972412</v>
+        <v>0.4507050514221191</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3890,10 +3890,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4605381488800049</v>
+        <v>0.4487569332122803</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3906,10 +3906,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.257985830307007</v>
+        <v>1.417638778686523</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -3922,10 +3922,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.285891056060791</v>
+        <v>1.432349920272827</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -3938,10 +3938,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5332250595092773</v>
+        <v>0.4205420017242432</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3954,10 +3954,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4409909248352051</v>
+        <v>0.4341268539428711</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3970,10 +3970,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.286813020706177</v>
+        <v>1.335064888000488</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -3986,10 +3986,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.218387842178345</v>
+        <v>1.34077525138855</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4280250072479248</v>
+        <v>0.4371521472930908</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4179749488830566</v>
+        <v>0.431865930557251</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4034,10 +4034,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.285220861434937</v>
+        <v>1.131778001785278</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -4050,10 +4050,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.307732820510864</v>
+        <v>1.452855110168457</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -4066,10 +4066,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4392049312591553</v>
+        <v>0.4268810749053955</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -4082,10 +4082,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4979269504547119</v>
+        <v>0.4433631896972656</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -4098,10 +4098,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.27712607383728</v>
+        <v>1.165236949920654</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -4114,10 +4114,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.309478044509888</v>
+        <v>1.337767124176025</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -4130,10 +4130,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4438116550445557</v>
+        <v>0.4332201480865479</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -4146,10 +4146,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4090659618377686</v>
+        <v>0.4361169338226318</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -4162,10 +4162,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.256623029708862</v>
+        <v>1.237545013427734</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -4178,10 +4178,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.342495918273926</v>
+        <v>1.328307867050171</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4401099681854248</v>
+        <v>0.4912071228027344</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5258958339691162</v>
+        <v>0.4386229515075684</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.227505922317505</v>
+        <v>1.341386795043945</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.304696083068848</v>
+        <v>1.318212032318115</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -4299,10 +4299,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4403500556945801</v>
+        <v>0.4349777698516846</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -4315,10 +4315,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4440550804138184</v>
+        <v>0.4353110790252686</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -4331,10 +4331,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.333903789520264</v>
+        <v>1.210753679275513</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -4347,10 +4347,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.451109886169434</v>
+        <v>1.31562614440918</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -4363,10 +4363,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4090309143066406</v>
+        <v>0.519075870513916</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -4379,10 +4379,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4248912334442139</v>
+        <v>0.4418880939483643</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -4395,10 +4395,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.279778957366943</v>
+        <v>1.280016183853149</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -4411,10 +4411,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.299591064453125</v>
+        <v>1.311651945114136</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4142870903015137</v>
+        <v>0.4460029602050781</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4372620582580566</v>
+        <v>0.4347219467163086</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4459,10 +4459,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.347110986709595</v>
+        <v>1.333677053451538</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -4475,10 +4475,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.218839168548584</v>
+        <v>1.37385106086731</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -4491,10 +4491,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5439331531524658</v>
+        <v>0.4236080646514893</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -4507,10 +4507,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4152772426605225</v>
+        <v>0.5505599975585938</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -4523,10 +4523,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.261750936508179</v>
+        <v>1.363947153091431</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -4539,10 +4539,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.266762971878052</v>
+        <v>1.350419044494629</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -4555,10 +4555,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4051499366760254</v>
+        <v>0.4312660694122314</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -4571,10 +4571,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5411899089813232</v>
+        <v>0.4305770397186279</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -4587,10 +4587,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.222685813903809</v>
+        <v>1.300536155700684</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -4603,10 +4603,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.581765174865723</v>
+        <v>1.341565847396851</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4502909183502197</v>
+        <v>0.4294741153717041</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4331240653991699</v>
+        <v>0.4895279407501221</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.185506105422974</v>
+        <v>1.293466091156006</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.279437780380249</v>
+        <v>1.266027212142944</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5057170391082764</v>
+        <v>0.4530699253082275</v>
       </c>
       <c r="D2" t="n">
-        <v>124.462</v>
+        <v>126.634</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5055422782897949</v>
+        <v>0.4333541393280029</v>
       </c>
       <c r="D3" t="n">
-        <v>164.363</v>
+        <v>166.535</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.236247062683105</v>
+        <v>1.207908868789673</v>
       </c>
       <c r="D4" t="n">
-        <v>189.106</v>
+        <v>191.278</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.484078884124756</v>
+        <v>1.283872127532959</v>
       </c>
       <c r="D5" t="n">
-        <v>241.564</v>
+        <v>243.736</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5184168815612793</v>
+        <v>0.4359111785888672</v>
       </c>
       <c r="D6" t="n">
-        <v>121.011</v>
+        <v>123.183</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5157082080841064</v>
+        <v>0.438154935836792</v>
       </c>
       <c r="D7" t="n">
-        <v>160.912</v>
+        <v>163.084</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.444288015365601</v>
+        <v>1.306140184402466</v>
       </c>
       <c r="D8" t="n">
-        <v>185.655</v>
+        <v>187.827</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.38774585723877</v>
+        <v>1.501900672912598</v>
       </c>
       <c r="D9" t="n">
-        <v>238.113</v>
+        <v>240.285</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5167872905731201</v>
+        <v>0.4366919994354248</v>
       </c>
       <c r="D10" t="n">
-        <v>124.462</v>
+        <v>126.634</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5133922100067139</v>
+        <v>0.4259531497955322</v>
       </c>
       <c r="D11" t="n">
-        <v>164.363</v>
+        <v>166.535</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.328571081161499</v>
+        <v>1.370809078216553</v>
       </c>
       <c r="D12" t="n">
-        <v>189.106</v>
+        <v>191.278</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.545685052871704</v>
+        <v>1.333517074584961</v>
       </c>
       <c r="D13" t="n">
-        <v>241.564</v>
+        <v>243.736</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.514585018157959</v>
+        <v>0.4440000057220459</v>
       </c>
       <c r="D14" t="n">
-        <v>125.106</v>
+        <v>127.278</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5199601650238037</v>
+        <v>0.4233999252319336</v>
       </c>
       <c r="D15" t="n">
-        <v>943.059</v>
+        <v>945.231</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.371779203414917</v>
+        <v>1.654818773269653</v>
       </c>
       <c r="D16" t="n">
-        <v>174.565</v>
+        <v>176.737</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.467875957489014</v>
+        <v>1.408651113510132</v>
       </c>
       <c r="D17" t="n">
-        <v>672.716</v>
+        <v>674.888</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5248301029205322</v>
+        <v>0.4462909698486328</v>
       </c>
       <c r="D18" t="n">
-        <v>121.655</v>
+        <v>123.827</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4999959468841553</v>
+        <v>0.4437978267669678</v>
       </c>
       <c r="D19" t="n">
-        <v>939.6079999999999</v>
+        <v>941.78</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.324290752410889</v>
+        <v>1.287493228912354</v>
       </c>
       <c r="D20" t="n">
-        <v>171.114</v>
+        <v>173.286</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.348283052444458</v>
+        <v>1.350631952285767</v>
       </c>
       <c r="D21" t="n">
-        <v>669.265</v>
+        <v>671.437</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5155372619628906</v>
+        <v>0.5957319736480713</v>
       </c>
       <c r="D22" t="n">
-        <v>125.106</v>
+        <v>127.278</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.510566234588623</v>
+        <v>0.4354159832000732</v>
       </c>
       <c r="D23" t="n">
-        <v>943.059</v>
+        <v>945.231</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.436439990997314</v>
+        <v>1.282384157180786</v>
       </c>
       <c r="D24" t="n">
-        <v>174.565</v>
+        <v>176.737</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.568870782852173</v>
+        <v>1.449380159378052</v>
       </c>
       <c r="D25" t="n">
-        <v>672.716</v>
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4394359588623047</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4449107646942139</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.232347249984741</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.420912981033325</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4513669013977051</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4287168979644775</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.547528266906738</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.43029522895813</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4450681209564209</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5109000205993652</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.374967098236084</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.520753145217896</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4349761009216309</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4341259002685547</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.406257152557373</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.272245168685913</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4368250370025635</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4246590137481689</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.494584083557129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.451085090637207</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4312901496887207</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4671308994293213</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.511422872543335</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.345677137374878</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4497809410095215</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4438059329986572</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.283289670944214</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.398362874984741</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4215018749237061</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4253959655761719</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.443839073181152</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.412929058074951</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4735360145568848</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.457122802734375</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.313829183578491</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.509984970092773</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4146349430084229</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4557240009307861</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.486434936523438</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.40174126625061</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4340088367462158</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5382850170135498</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.204438924789429</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.338648080825806</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4461038112640381</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4520807266235352</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.419093132019043</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.495438098907471</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4462728500366211</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4973978996276855</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.311743974685669</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.4267258644104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.429699182510376</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4358930587768555</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.414774894714355</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.454890012741089</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4287652969360352</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4261319637298584</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.448086023330688</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.411620140075684</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4321589469909668</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4344282150268555</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.178792238235474</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.423214912414551</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4392111301422119</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4334580898284912</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.428065776824951</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.468438148498535</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4229300022125244</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4399678707122803</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.268865823745728</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.434547901153564</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4356422424316406</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4325828552246094</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.40644097328186</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.376562833786011</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4327156543731689</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4323263168334961</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.376499891281128</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.467940807342529</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4400568008422852</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4356076717376709</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.344810962677002</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.297981977462769</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5539188385009766</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.439014196395874</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.423310279846191</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.387417078018188</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4542269706726074</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.570836067199707</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.220331907272339</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.328777074813843</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4357349872589111</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.459014892578125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.339326858520508</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.421993017196655</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.437420129776001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4307630062103271</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.141745090484619</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.392917633056641</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4355480670928955</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4375348091125488</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.36754584312439</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.279080867767334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4249520301818848</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4374740123748779</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.415349960327148</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.451600074768066</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5641589164733887</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4374399185180664</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.223458051681519</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.332943677902222</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4297430515289307</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4404380321502686</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.405826091766357</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.431212902069092</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4614779949188232</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4268102645874023</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.500097036361694</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.384133815765381</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4463939666748047</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4362380504608154</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.421303749084473</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.386086225509644</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4502789974212646</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4486799240112305</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.35729193687439</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.410319805145264</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.441215991973877</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.434323787689209</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.203176259994507</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.398820161819458</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4642250537872314</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4469928741455078</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.398710012435913</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.553261041641235</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4632787704467773</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4401290416717529</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.33255410194397</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.456261873245239</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4653918743133545</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4479200839996338</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.403513669967651</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.411926031112671</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4427969455718994</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4302921295166016</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.426578044891357</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.439526081085205</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4570629596710205</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4554440975189209</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.344032049179077</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.193710088729858</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4577820301055908</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4446778297424316</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.366160869598389</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.464388132095337</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4375457763671875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.458331823348999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.440320014953613</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.381642818450928</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4306900501251221</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.445756196975708</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.439480066299438</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.44706916809082</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.441453218460083</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.445206880569458</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.200748205184937</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.408164739608765</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4346389770507812</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4362101554870605</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.392879247665405</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.381921052932739</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4405021667480469</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4426639080047607</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.306362867355347</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.392242193222046</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4555718898773193</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4346640110015869</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.421589851379395</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.470524072647095</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4301269054412842</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4363272190093994</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.472929000854492</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.405610084533691</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4335248470306396</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4545900821685791</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.232584953308105</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.458033084869385</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4308457374572754</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4282422065734863</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.497187852859497</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.402513265609741</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4404449462890625</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4303350448608398</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.433748960494995</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.38285493850708</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.436676025390625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4481730461120605</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.367748022079468</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.406451940536499</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4294328689575195</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4401760101318359</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.252114057540894</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.370139122009277</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4650750160217285</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.428278923034668</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.514508724212646</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.501305818557739</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4428648948669434</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4455549716949463</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.387059926986694</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.452015161514282</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4446988105773926</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4444489479064941</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.435220003128052</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.379415035247803</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -474,7 +474,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4291720390319824</v>
+        <v>0.4413208961486816</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -490,7 +490,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4331231117248535</v>
+        <v>0.4556879997253418</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -506,7 +506,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.419973850250244</v>
+        <v>1.325217008590698</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -522,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.418911933898926</v>
+        <v>1.284791946411133</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -538,7 +538,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4323692321777344</v>
+        <v>0.5450530052185059</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -554,7 +554,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4527151584625244</v>
+        <v>0.4471852779388428</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -570,7 +570,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.55875825881958</v>
+        <v>1.314185857772827</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -586,7 +586,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.433037996292114</v>
+        <v>1.338582038879395</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -602,7 +602,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5507731437683105</v>
+        <v>0.4473018646240234</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -618,7 +618,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4664452075958252</v>
+        <v>0.4286060333251953</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -634,7 +634,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.516951084136963</v>
+        <v>1.300858020782471</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -650,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.404972791671753</v>
+        <v>1.290042161941528</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -666,7 +666,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4505469799041748</v>
+        <v>0.4395430088043213</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -682,7 +682,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4507460594177246</v>
+        <v>0.440385103225708</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -698,7 +698,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.426390886306763</v>
+        <v>1.335439205169678</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -714,7 +714,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.598204851150513</v>
+        <v>1.481698989868164</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -730,7 +730,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4814009666442871</v>
+        <v>0.4407281875610352</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -746,7 +746,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4251818656921387</v>
+        <v>0.4387619495391846</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -762,7 +762,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.427050828933716</v>
+        <v>1.323116064071655</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -778,7 +778,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.471199989318848</v>
+        <v>1.380821943283081</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -794,7 +794,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4343302249908447</v>
+        <v>0.4358527660369873</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -810,7 +810,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4414448738098145</v>
+        <v>0.4583940505981445</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -826,7 +826,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.436547994613647</v>
+        <v>1.37161111831665</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -842,7 +842,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.524181127548218</v>
+        <v>1.442540884017944</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -899,7 +899,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4288477897644043</v>
+        <v>0.4257361888885498</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -915,7 +915,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4868998527526855</v>
+        <v>0.4340229034423828</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -931,7 +931,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.472395896911621</v>
+        <v>1.109824895858765</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -947,7 +947,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.603348970413208</v>
+        <v>1.30099081993103</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -963,7 +963,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.438654899597168</v>
+        <v>0.4314138889312744</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -979,7 +979,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4375569820404053</v>
+        <v>0.5190341472625732</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -995,7 +995,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.367609024047852</v>
+        <v>1.301476955413818</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1011,7 +1011,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.357962846755981</v>
+        <v>1.288933038711548</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1027,7 +1027,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4361641407012939</v>
+        <v>0.438992977142334</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1043,7 +1043,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4674460887908936</v>
+        <v>0.4442009925842285</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1059,7 +1059,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.553235054016113</v>
+        <v>1.342205047607422</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.447935104370117</v>
+        <v>1.291854858398438</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1091,7 +1091,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4633879661560059</v>
+        <v>0.4347081184387207</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -1107,7 +1107,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4345579147338867</v>
+        <v>0.4217879772186279</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -1123,7 +1123,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.36736798286438</v>
+        <v>1.419322967529297</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -1139,7 +1139,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.455406904220581</v>
+        <v>1.443805932998657</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -1155,7 +1155,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4413278102874756</v>
+        <v>0.4463050365447998</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -1171,7 +1171,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4589800834655762</v>
+        <v>0.4351351261138916</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -1187,7 +1187,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.296664714813232</v>
+        <v>1.287623882293701</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -1203,7 +1203,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.549429893493652</v>
+        <v>1.366188049316406</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -1219,7 +1219,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4681398868560791</v>
+        <v>0.4383208751678467</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -1235,7 +1235,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4477250576019287</v>
+        <v>0.4420096874237061</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.437489032745361</v>
+        <v>1.042674779891968</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>118.46</v>
       </c>
     </row>
     <row r="25">
@@ -1267,7 +1267,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.410666942596436</v>
+        <v>1.399118185043335</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -1324,7 +1324,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4798460006713867</v>
+        <v>0.4355018138885498</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -1340,7 +1340,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4449400901794434</v>
+        <v>0.4281430244445801</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -1356,7 +1356,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.253613948822021</v>
+        <v>1.17215895652771</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -1372,7 +1372,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.501407861709595</v>
+        <v>1.296576023101807</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -1388,7 +1388,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.44970703125</v>
+        <v>0.4279632568359375</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -1404,7 +1404,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4570589065551758</v>
+        <v>0.5357160568237305</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -1420,7 +1420,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.251587867736816</v>
+        <v>1.338037014007568</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1436,7 +1436,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.321316003799438</v>
+        <v>1.219821214675903</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1452,7 +1452,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5499141216278076</v>
+        <v>0.4313068389892578</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1468,7 +1468,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4397721290588379</v>
+        <v>0.43595290184021</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.381002902984619</v>
+        <v>1.166394948959351</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1500,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.48851490020752</v>
+        <v>1.24648118019104</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1516,7 +1516,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4390997886657715</v>
+        <v>0.4413621425628662</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -1532,7 +1532,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4415628910064697</v>
+        <v>0.4218282699584961</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -1548,7 +1548,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.62314510345459</v>
+        <v>1.328758001327515</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -1564,7 +1564,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.458192825317383</v>
+        <v>1.313518047332764</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -1580,7 +1580,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5346028804779053</v>
+        <v>0.4425640106201172</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -1596,7 +1596,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4574210643768311</v>
+        <v>0.4367542266845703</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -1612,7 +1612,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.414573907852173</v>
+        <v>1.24705696105957</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -1628,7 +1628,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.492191076278687</v>
+        <v>1.354557037353516</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -1644,7 +1644,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4357631206512451</v>
+        <v>0.431251049041748</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -1660,7 +1660,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4386880397796631</v>
+        <v>0.4396679401397705</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -1676,7 +1676,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.405019760131836</v>
+        <v>1.313947200775146</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -1692,7 +1692,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.48611307144165</v>
+        <v>1.491467952728271</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -1749,7 +1749,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5355780124664307</v>
+        <v>0.4383339881896973</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -1765,7 +1765,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4318089485168457</v>
+        <v>0.4349660873413086</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -1781,7 +1781,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.386032104492188</v>
+        <v>1.340733051300049</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -1797,7 +1797,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.444732904434204</v>
+        <v>1.334380149841309</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -1813,7 +1813,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4336979389190674</v>
+        <v>0.4337568283081055</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -1829,7 +1829,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4467802047729492</v>
+        <v>0.4394817352294922</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -1845,7 +1845,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.395745992660522</v>
+        <v>1.29950475692749</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1861,7 +1861,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.438519716262817</v>
+        <v>1.310174942016602</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1877,7 +1877,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4538531303405762</v>
+        <v>0.4691720008850098</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1893,7 +1893,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4336929321289062</v>
+        <v>0.4509880542755127</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1909,7 +1909,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.441124200820923</v>
+        <v>1.36509108543396</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1925,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.465563774108887</v>
+        <v>1.310148239135742</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1941,7 +1941,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4427070617675781</v>
+        <v>0.4310541152954102</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -1957,7 +1957,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4461979866027832</v>
+        <v>0.4325840473175049</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -1973,7 +1973,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.489094018936157</v>
+        <v>1.17725682258606</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -1989,7 +1989,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.51933217048645</v>
+        <v>1.385316848754883</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -2005,7 +2005,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4215099811553955</v>
+        <v>0.4444370269775391</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -2021,7 +2021,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.451793909072876</v>
+        <v>0.5221068859100342</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -2037,7 +2037,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.478509902954102</v>
+        <v>1.313191175460815</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -2053,7 +2053,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.473514080047607</v>
+        <v>1.414784908294678</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -2069,7 +2069,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.424274206161499</v>
+        <v>0.436610221862793</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2085,7 +2085,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5710251331329346</v>
+        <v>0.4244701862335205</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2101,7 +2101,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.528714179992676</v>
+        <v>1.316366195678711</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2117,7 +2117,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.571985244750977</v>
+        <v>1.445101022720337</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -2174,7 +2174,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4606671333312988</v>
+        <v>0.485039234161377</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -2190,7 +2190,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4340462684631348</v>
+        <v>0.4417850971221924</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -2206,7 +2206,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.426500082015991</v>
+        <v>1.281430006027222</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -2222,7 +2222,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.389989137649536</v>
+        <v>1.250349760055542</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -2238,7 +2238,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4271910190582275</v>
+        <v>0.5752079486846924</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -2254,7 +2254,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5854618549346924</v>
+        <v>0.4276702404022217</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -2270,7 +2270,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.468926906585693</v>
+        <v>1.334954023361206</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -2286,7 +2286,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.443643093109131</v>
+        <v>1.334139108657837</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -2302,7 +2302,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4487221240997314</v>
+        <v>0.436558723449707</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -2318,7 +2318,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5503060817718506</v>
+        <v>0.5050241947174072</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.458282947540283</v>
+        <v>1.223855972290039</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.238499164581299</v>
+        <v>1.244105815887451</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2366,7 +2366,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4438409805297852</v>
+        <v>0.4297997951507568</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -2382,7 +2382,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.456916332244873</v>
+        <v>0.4456031322479248</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -2398,7 +2398,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.415184259414673</v>
+        <v>1.346826076507568</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -2414,7 +2414,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.467287063598633</v>
+        <v>1.523261070251465</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -2430,7 +2430,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.611375093460083</v>
+        <v>0.4475457668304443</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -2446,7 +2446,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>1.134335994720459</v>
+        <v>0.4381210803985596</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -2462,7 +2462,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.367408275604248</v>
+        <v>1.364189863204956</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -2478,7 +2478,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.513453006744385</v>
+        <v>1.418879270553589</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -2494,7 +2494,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4283521175384521</v>
+        <v>0.4411571025848389</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2510,7 +2510,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4336671829223633</v>
+        <v>0.4351541996002197</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2526,7 +2526,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.314198017120361</v>
+        <v>1.335816860198975</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2542,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.504844903945923</v>
+        <v>1.327794790267944</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4342031478881836</v>
+        <v>0.4375491142272949</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -2615,7 +2615,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4210150241851807</v>
+        <v>0.443681001663208</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -2631,7 +2631,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.43720006942749</v>
+        <v>1.227270126342773</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -2647,7 +2647,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.49863600730896</v>
+        <v>1.356663942337036</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -2663,7 +2663,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.444753885269165</v>
+        <v>0.4442927837371826</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -2679,7 +2679,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4302141666412354</v>
+        <v>0.4497127532958984</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -2695,7 +2695,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.404103994369507</v>
+        <v>1.22442889213562</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -2711,7 +2711,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.306504964828491</v>
+        <v>1.2171630859375</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -2727,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5443551540374756</v>
+        <v>0.4380190372467041</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -2743,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4443221092224121</v>
+        <v>0.4334368705749512</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -2759,7 +2759,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.465573787689209</v>
+        <v>1.177881717681885</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2775,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.385940074920654</v>
+        <v>1.102955102920532</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2791,7 +2791,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4506478309631348</v>
+        <v>0.5575628280639648</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -2807,7 +2807,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4284298419952393</v>
+        <v>0.4224169254302979</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -2823,7 +2823,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.439167022705078</v>
+        <v>1.328803777694702</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -2839,7 +2839,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.501217842102051</v>
+        <v>1.369568109512329</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -2855,7 +2855,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4481008052825928</v>
+        <v>0.4356837272644043</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -2871,7 +2871,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.496445894241333</v>
+        <v>0.4350419044494629</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -2887,7 +2887,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.469614028930664</v>
+        <v>1.311162948608398</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -2903,7 +2903,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.541138887405396</v>
+        <v>1.15324592590332</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -2919,7 +2919,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.452711820602417</v>
+        <v>0.4256792068481445</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2935,7 +2935,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4520530700683594</v>
+        <v>0.4362518787384033</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2951,7 +2951,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.395739316940308</v>
+        <v>1.356620788574219</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2967,7 +2967,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.5362229347229</v>
+        <v>1.423660039901733</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3024,7 +3024,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4339807033538818</v>
+        <v>0.4319450855255127</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -3040,7 +3040,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4387128353118896</v>
+        <v>0.435554027557373</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -3056,7 +3056,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.272106409072876</v>
+        <v>1.350882768630981</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3072,7 +3072,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.383285999298096</v>
+        <v>1.139292001724243</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -3088,7 +3088,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4313502311706543</v>
+        <v>0.4371960163116455</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -3104,7 +3104,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4516658782958984</v>
+        <v>0.4245896339416504</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -3120,7 +3120,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.403442859649658</v>
+        <v>1.275192022323608</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3136,7 +3136,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.293485164642334</v>
+        <v>1.292940139770508</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -3152,7 +3152,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4542629718780518</v>
+        <v>0.4325299263000488</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -3168,7 +3168,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4421277046203613</v>
+        <v>0.4384009838104248</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -3184,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.342897891998291</v>
+        <v>1.298386096954346</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.393961906433105</v>
+        <v>1.18813681602478</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3216,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4221189022064209</v>
+        <v>0.4388868808746338</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -3232,7 +3232,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4414761066436768</v>
+        <v>0.4291090965270996</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -3248,7 +3248,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.430050134658813</v>
+        <v>1.358211040496826</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -3264,7 +3264,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.462239980697632</v>
+        <v>1.432812929153442</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -3280,7 +3280,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4927430152893066</v>
+        <v>0.4265069961547852</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -3296,7 +3296,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4377501010894775</v>
+        <v>0.5668869018554688</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -3312,7 +3312,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.389473915100098</v>
+        <v>1.306734085083008</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -3328,7 +3328,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.517491817474365</v>
+        <v>1.461998701095581</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -3344,7 +3344,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4422640800476074</v>
+        <v>0.4239768981933594</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -3360,7 +3360,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4412319660186768</v>
+        <v>0.4407720565795898</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -3376,7 +3376,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.187900304794312</v>
+        <v>1.217390060424805</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -3392,7 +3392,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.617313861846924</v>
+        <v>1.420482873916626</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3449,7 +3449,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.540679931640625</v>
+        <v>0.4526910781860352</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -3465,7 +3465,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.4305317401885986</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -3481,7 +3481,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.48687219619751</v>
+        <v>1.348410844802856</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3497,7 +3497,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.395934104919434</v>
+        <v>1.292602062225342</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -3513,7 +3513,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4398269653320312</v>
+        <v>0.715925931930542</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -3529,7 +3529,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4412398338317871</v>
+        <v>0.4370841979980469</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -3545,7 +3545,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.457271099090576</v>
+        <v>1.303241968154907</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3561,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.392302274703979</v>
+        <v>1.321857213973999</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -3577,7 +3577,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4680120944976807</v>
+        <v>0.441676139831543</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -3593,7 +3593,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4423890113830566</v>
+        <v>0.4399232864379883</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -3609,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.550845861434937</v>
+        <v>1.284512042999268</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3625,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.47483229637146</v>
+        <v>1.308962106704712</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3641,7 +3641,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.444080114364624</v>
+        <v>0.4715802669525146</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -3657,7 +3657,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4553821086883545</v>
+        <v>0.4353206157684326</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -3673,7 +3673,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.38932991027832</v>
+        <v>1.379150867462158</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -3689,7 +3689,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.65056586265564</v>
+        <v>1.432931900024414</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -3705,7 +3705,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4362847805023193</v>
+        <v>0.4344372749328613</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -3721,7 +3721,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7607769966125488</v>
+        <v>0.440040111541748</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -3737,7 +3737,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.190628051757812</v>
+        <v>5.47394585609436</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -3753,7 +3753,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.731523275375366</v>
+        <v>1.233848094940186</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -3769,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4409260749816895</v>
+        <v>0.4722111225128174</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -3785,7 +3785,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4324860572814941</v>
+        <v>0.5803651809692383</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -3801,7 +3801,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.557843923568726</v>
+        <v>1.431470155715942</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -3817,7 +3817,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.497642993927002</v>
+        <v>1.392060041427612</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3874,7 +3874,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4347150325775146</v>
+        <v>0.6686091423034668</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -3890,7 +3890,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5015609264373779</v>
+        <v>0.4824302196502686</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -3906,7 +3906,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.383591890335083</v>
+        <v>1.336044788360596</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3922,7 +3922,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>5.706532955169678</v>
+        <v>1.400352954864502</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -3938,7 +3938,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4313058853149414</v>
+        <v>0.5763771533966064</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -3954,7 +3954,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8044109344482422</v>
+        <v>0.4596521854400635</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -3970,7 +3970,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.223191022872925</v>
+        <v>1.321057796478271</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3986,7 +3986,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.45612621307373</v>
+        <v>1.298856973648071</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -4002,7 +4002,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4351308345794678</v>
+        <v>0.4697890281677246</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -4018,7 +4018,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.582761287689209</v>
+        <v>0.4397742748260498</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -4034,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.389808893203735</v>
+        <v>1.240405082702637</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4050,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.462332010269165</v>
+        <v>1.306714057922363</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4066,7 +4066,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.426461935043335</v>
+        <v>0.5823600292205811</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -4082,7 +4082,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4618659019470215</v>
+        <v>0.4388318061828613</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -4098,7 +4098,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.395547151565552</v>
+        <v>1.327033042907715</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -4114,7 +4114,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.456813097000122</v>
+        <v>1.45886492729187</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -4130,7 +4130,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4273412227630615</v>
+        <v>0.443159818649292</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -4146,7 +4146,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4628007411956787</v>
+        <v>0.4358823299407959</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -4162,7 +4162,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.475910902023315</v>
+        <v>1.265736103057861</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -4178,7 +4178,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.503555059432983</v>
+        <v>1.443780183792114</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -4194,7 +4194,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4461879730224609</v>
+        <v>0.4308650493621826</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -4210,7 +4210,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4324958324432373</v>
+        <v>0.441842794418335</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -4226,7 +4226,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.313614130020142</v>
+        <v>1.208186149597168</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -4242,7 +4242,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.505619287490845</v>
+        <v>1.395014047622681</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -4299,7 +4299,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4369437694549561</v>
+        <v>0.4309990406036377</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -4315,7 +4315,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4464669227600098</v>
+        <v>0.43772292137146</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -4331,7 +4331,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.457454919815063</v>
+        <v>1.307050943374634</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -4347,7 +4347,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.468065738677979</v>
+        <v>1.248533964157104</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -4363,7 +4363,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4411399364471436</v>
+        <v>0.5564870834350586</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -4379,7 +4379,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4647591114044189</v>
+        <v>0.4420580863952637</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -4395,7 +4395,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.312302827835083</v>
+        <v>1.112481117248535</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -4411,7 +4411,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.277545213699341</v>
+        <v>1.307420015335083</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -4427,7 +4427,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4279069900512695</v>
+        <v>0.4307539463043213</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -4443,7 +4443,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4453151226043701</v>
+        <v>0.4265291690826416</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.373694896697998</v>
+        <v>1.320172786712646</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4475,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.255462884902954</v>
+        <v>1.396789073944092</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4491,7 +4491,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4311878681182861</v>
+        <v>0.423262357711792</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -4507,7 +4507,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4774086475372314</v>
+        <v>0.4466612339019775</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -4523,7 +4523,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.463300704956055</v>
+        <v>1.318624019622803</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -4539,7 +4539,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.416107177734375</v>
+        <v>1.382272005081177</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -4555,7 +4555,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4330661296844482</v>
+        <v>0.5030829906463623</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -4571,7 +4571,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4478912353515625</v>
+        <v>0.4339988231658936</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -4587,7 +4587,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.352344989776611</v>
+        <v>1.314283132553101</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -4603,7 +4603,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.546835899353027</v>
+        <v>1.402961015701294</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -4619,7 +4619,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4386060237884521</v>
+        <v>0.4326529502868652</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -4635,7 +4635,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4410591125488281</v>
+        <v>0.5060968399047852</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -4651,7 +4651,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.422355890274048</v>
+        <v>1.371226787567139</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -4667,7 +4667,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.582772254943848</v>
+        <v>1.433565855026245</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>

--- a/client/test_results/unfiltered_edge_test_results.xlsx
+++ b/client/test_results/unfiltered_edge_test_results.xlsx
@@ -474,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4382109642028809</v>
+        <v>0.43520188331604</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4355168342590332</v>
+        <v>0.4324922561645508</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.308164119720459</v>
+        <v>1.374171733856201</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -522,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.333482027053833</v>
+        <v>1.558912992477417</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -538,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4441530704498291</v>
+        <v>0.4702589511871338</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5709068775177002</v>
+        <v>0.4326977729797363</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.29724383354187</v>
+        <v>1.457138299942017</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -586,7 +586,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.494497776031494</v>
+        <v>1.369871139526367</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5478758811950684</v>
+        <v>0.4342961311340332</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4286131858825684</v>
+        <v>0.4349658489227295</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -634,7 +634,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.311869859695435</v>
+        <v>1.370552062988281</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -650,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.309634923934937</v>
+        <v>1.507058143615723</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -666,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4394607543945312</v>
+        <v>0.4195249080657959</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -682,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4423010349273682</v>
+        <v>0.4227859973907471</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -698,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.36970591545105</v>
+        <v>1.442034959793091</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.348222970962524</v>
+        <v>1.422651767730713</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -730,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5548160076141357</v>
+        <v>0.437000036239624</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -746,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.431121826171875</v>
+        <v>0.4450891017913818</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -762,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.391441106796265</v>
+        <v>1.207780838012695</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -778,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.422306060791016</v>
+        <v>1.586786985397339</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4302740097045898</v>
+        <v>0.4581179618835449</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4420511722564697</v>
+        <v>0.4653968811035156</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.166413068771362</v>
+        <v>1.386904954910278</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.490072965621948</v>
+        <v>1.407661199569702</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +899,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4265387058258057</v>
+        <v>0.4522669315338135</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4466660022735596</v>
+        <v>0.4457769393920898</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -931,7 +931,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.251601934432983</v>
+        <v>1.343525171279907</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -947,7 +947,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.422116756439209</v>
+        <v>1.188186168670654</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -963,10 +963,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4400420188903809</v>
+        <v>0.4351770877838135</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -979,10 +979,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.46455979347229</v>
+        <v>0.4325249195098877</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -995,7 +995,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.351696014404297</v>
+        <v>1.267338037490845</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1011,7 +1011,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.217674016952515</v>
+        <v>1.456206798553467</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4600179195404053</v>
+        <v>0.4251031875610352</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1043,10 +1043,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4360120296478271</v>
+        <v>0.4509181976318359</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1059,7 +1059,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.349292755126953</v>
+        <v>1.459422826766968</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.401576042175293</v>
+        <v>1.418175935745239</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1091,10 +1091,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4460349082946777</v>
+        <v>0.451807975769043</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -1107,10 +1107,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4295568466186523</v>
+        <v>0.4509921073913574</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -1123,10 +1123,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.387019634246826</v>
+        <v>1.435570240020752</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -1139,10 +1139,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.40420389175415</v>
+        <v>1.482580900192261</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -1155,10 +1155,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4341371059417725</v>
+        <v>0.4434800148010254</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -1171,10 +1171,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4377908706665039</v>
+        <v>0.4336471557617188</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -1187,10 +1187,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.318887948989868</v>
+        <v>1.403136968612671</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -1203,10 +1203,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.492640018463135</v>
+        <v>1.466243743896484</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.432729959487915</v>
+        <v>0.4873652458190918</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.458251953125</v>
+        <v>0.5600519180297852</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.356762886047363</v>
+        <v>1.524916887283325</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.38088321685791</v>
+        <v>1.399519920349121</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1324,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4400229454040527</v>
+        <v>0.433182954788208</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -1340,10 +1340,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4556188583374023</v>
+        <v>0.4736218452453613</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -1356,7 +1356,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.356367111206055</v>
+        <v>1.399878263473511</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -1372,7 +1372,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.256153106689453</v>
+        <v>1.346643209457397</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -1388,10 +1388,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4388892650604248</v>
+        <v>0.4348340034484863</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -1404,10 +1404,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4869058132171631</v>
+        <v>0.4702658653259277</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -1420,7 +1420,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.296499013900757</v>
+        <v>1.394587755203247</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1436,7 +1436,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.369379043579102</v>
+        <v>1.505043983459473</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.438446044921875</v>
+        <v>0.4338641166687012</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1468,10 +1468,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4444918632507324</v>
+        <v>0.4542899131774902</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.40374493598938</v>
+        <v>1.314823150634766</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1500,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.386911869049072</v>
+        <v>1.446377992630005</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1516,10 +1516,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4280240535736084</v>
+        <v>0.4489052295684814</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -1532,10 +1532,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5496730804443359</v>
+        <v>0.4255509376525879</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -1548,10 +1548,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.348326206207275</v>
+        <v>1.454687118530273</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -1564,10 +1564,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.424602031707764</v>
+        <v>1.693975210189819</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -1580,10 +1580,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4647979736328125</v>
+        <v>0.4528787136077881</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -1596,10 +1596,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6534638404846191</v>
+        <v>0.4472041130065918</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -1612,10 +1612,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.21257495880127</v>
+        <v>1.305921077728271</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -1628,10 +1628,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.419639825820923</v>
+        <v>1.693097829818726</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4373512268066406</v>
+        <v>0.4317581653594971</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.436596155166626</v>
+        <v>0.4724040031433105</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.351035118103027</v>
+        <v>1.406044960021973</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.416446924209595</v>
+        <v>1.414318084716797</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4510509967803955</v>
+        <v>0.4396939277648926</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4432461261749268</v>
+        <v>0.4431118965148926</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -1781,7 +1781,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.321341991424561</v>
+        <v>1.443458080291748</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -1797,7 +1797,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.357161998748779</v>
+        <v>1.333229064941406</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -1813,10 +1813,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4367852210998535</v>
+        <v>0.4355828762054443</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.437518835067749</v>
+        <v>0.4304680824279785</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -1845,7 +1845,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.405632972717285</v>
+        <v>1.089973926544189</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1861,7 +1861,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.431116104125977</v>
+        <v>1.463692665100098</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4303989410400391</v>
+        <v>0.4362843036651611</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4459819793701172</v>
+        <v>0.4383199214935303</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1909,7 +1909,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.326310873031616</v>
+        <v>1.338344812393188</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1925,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.318238973617554</v>
+        <v>1.422164916992188</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1941,10 +1941,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4351379871368408</v>
+        <v>0.4372689723968506</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4380490779876709</v>
+        <v>0.4575209617614746</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.348326206207275</v>
+        <v>1.337689876556396</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.433174133300781</v>
+        <v>1.508198976516724</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5370869636535645</v>
+        <v>0.4652678966522217</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -2021,10 +2021,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4403986930847168</v>
+        <v>0.4320259094238281</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -2037,10 +2037,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.349105834960938</v>
+        <v>1.45527195930481</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -2053,10 +2053,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.404857158660889</v>
+        <v>1.553690195083618</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4380640983581543</v>
+        <v>0.4448890686035156</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4350857734680176</v>
+        <v>0.4446389675140381</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.373002052307129</v>
+        <v>1.523699045181274</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.43218731880188</v>
+        <v>1.436933040618896</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5551600456237793</v>
+        <v>0.443572998046875</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -2190,10 +2190,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4402470588684082</v>
+        <v>0.4268710613250732</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -2206,7 +2206,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.343404054641724</v>
+        <v>1.222379922866821</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -2222,7 +2222,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.292098999023438</v>
+        <v>1.397976160049438</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -2238,10 +2238,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4266419410705566</v>
+        <v>0.4397208690643311</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -2254,10 +2254,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4380989074707031</v>
+        <v>0.4410979747772217</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -2270,7 +2270,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.204066038131714</v>
+        <v>1.471808910369873</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -2286,7 +2286,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.343707084655762</v>
+        <v>1.448522090911865</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5275788307189941</v>
+        <v>0.4460787773132324</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4403738975524902</v>
+        <v>0.4529001712799072</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.325778961181641</v>
+        <v>1.332523107528687</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.345873832702637</v>
+        <v>1.501121997833252</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2366,10 +2366,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4443247318267822</v>
+        <v>0.4347708225250244</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -2382,10 +2382,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4436259269714355</v>
+        <v>0.4372420310974121</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -2398,10 +2398,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.273050785064697</v>
+        <v>1.467528104782104</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -2414,10 +2414,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.375813007354736</v>
+        <v>1.427052974700928</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -2430,10 +2430,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4486310482025146</v>
+        <v>0.4451618194580078</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -2446,10 +2446,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5320320129394531</v>
+        <v>0.4427368640899658</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -2462,10 +2462,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.315943002700806</v>
+        <v>1.436433792114258</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -2478,10 +2478,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.403932809829712</v>
+        <v>1.422983884811401</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4234192371368408</v>
+        <v>0.4639720916748047</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.450761079788208</v>
+        <v>0.4549860954284668</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.304582118988037</v>
+        <v>1.23677396774292</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.288508176803589</v>
+        <v>1.470650911331177</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -2599,10 +2599,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4680137634277344</v>
+        <v>0.4791920185089111</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -2615,10 +2615,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4295978546142578</v>
+        <v>0.4588167667388916</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -2631,7 +2631,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.675246000289917</v>
+        <v>1.358726024627686</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -2647,7 +2647,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.332140922546387</v>
+        <v>1.369585990905762</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -2663,10 +2663,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4505090713500977</v>
+        <v>0.4530231952667236</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -2679,10 +2679,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4583480358123779</v>
+        <v>0.4384939670562744</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -2695,7 +2695,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.341846227645874</v>
+        <v>1.221518278121948</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -2711,7 +2711,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.322421073913574</v>
+        <v>1.546919822692871</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4588649272918701</v>
+        <v>0.4447870254516602</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5465970039367676</v>
+        <v>0.4427430629730225</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2759,7 +2759,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.304130077362061</v>
+        <v>1.424846172332764</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2775,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.339196920394897</v>
+        <v>1.436823844909668</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2791,10 +2791,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4300470352172852</v>
+        <v>0.4508838653564453</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -2807,10 +2807,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4304249286651611</v>
+        <v>0.4442460536956787</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -2823,10 +2823,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.310979843139648</v>
+        <v>1.130574941635132</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -2839,10 +2839,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.363860130310059</v>
+        <v>1.568740129470825</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -2855,10 +2855,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4333028793334961</v>
+        <v>0.4418480396270752</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -2871,10 +2871,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4289898872375488</v>
+        <v>0.4394402503967285</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -2887,10 +2887,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.200107097625732</v>
+        <v>1.474941968917847</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -2903,10 +2903,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.391838073730469</v>
+        <v>1.445647954940796</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4511260986328125</v>
+        <v>0.4743108749389648</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4227249622344971</v>
+        <v>0.4620518684387207</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.211865663528442</v>
+        <v>1.456238031387329</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.45688796043396</v>
+        <v>1.312922954559326</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3024,10 +3024,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4411630630493164</v>
+        <v>0.4514598846435547</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3040,10 +3040,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4565420150756836</v>
+        <v>0.4346580505371094</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3056,7 +3056,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.326786041259766</v>
+        <v>1.641348123550415</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3072,7 +3072,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.392929077148438</v>
+        <v>1.404438018798828</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -3088,10 +3088,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4224040508270264</v>
+        <v>0.429279088973999</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3104,10 +3104,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4327521324157715</v>
+        <v>0.4706380367279053</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3120,7 +3120,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.123904943466187</v>
+        <v>1.434902191162109</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3136,7 +3136,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.340468883514404</v>
+        <v>1.43009877204895</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.423145055770874</v>
+        <v>0.544579029083252</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.445159912109375</v>
+        <v>0.4455370903015137</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3184,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.227831840515137</v>
+        <v>1.442162990570068</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.295085906982422</v>
+        <v>1.320130825042725</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3216,10 +3216,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4446992874145508</v>
+        <v>0.4399750232696533</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -3232,10 +3232,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4463307857513428</v>
+        <v>0.4462361335754395</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -3248,10 +3248,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.278654813766479</v>
+        <v>1.488148927688599</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -3264,10 +3264,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.319723129272461</v>
+        <v>1.556464672088623</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -3280,10 +3280,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.433542013168335</v>
+        <v>0.4362170696258545</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -3296,10 +3296,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4199519157409668</v>
+        <v>0.4322710037231445</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -3312,10 +3312,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.207460165023804</v>
+        <v>1.519097089767456</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -3328,10 +3328,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.378879070281982</v>
+        <v>1.43457293510437</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4481759071350098</v>
+        <v>0.4379949569702148</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4438347816467285</v>
+        <v>0.431826114654541</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.323797702789307</v>
+        <v>1.385766267776489</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.399435997009277</v>
+        <v>1.456583023071289</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3449,10 +3449,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4413068294525146</v>
+        <v>0.4465270042419434</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3465,10 +3465,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4285328388214111</v>
+        <v>0.4413747787475586</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3481,7 +3481,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.146503925323486</v>
+        <v>1.285163879394531</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3497,7 +3497,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.323379993438721</v>
+        <v>1.327364921569824</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -3513,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4291510581970215</v>
+        <v>0.4365911483764648</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3529,10 +3529,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4570062160491943</v>
+        <v>0.4397597312927246</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3545,7 +3545,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.270729303359985</v>
+        <v>1.352066040039062</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3561,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.314460039138794</v>
+        <v>1.514923095703125</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4406359195709229</v>
+        <v>0.6501290798187256</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5378470420837402</v>
+        <v>0.4365558624267578</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3609,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.306677103042603</v>
+        <v>1.359166860580444</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3625,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.134679079055786</v>
+        <v>1.376291036605835</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3641,10 +3641,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4296460151672363</v>
+        <v>0.4248220920562744</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -3657,10 +3657,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4433920383453369</v>
+        <v>0.4516630172729492</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -3673,10 +3673,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.29597806930542</v>
+        <v>1.394881963729858</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -3689,10 +3689,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.404275894165039</v>
+        <v>1.603673219680786</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -3705,10 +3705,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.442615270614624</v>
+        <v>0.4579520225524902</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -3721,10 +3721,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4359002113342285</v>
+        <v>0.4258582592010498</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -3737,10 +3737,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.38673996925354</v>
+        <v>1.361472129821777</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -3753,10 +3753,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.396607875823975</v>
+        <v>1.49219012260437</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4242331981658936</v>
+        <v>0.4403097629547119</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4586880207061768</v>
+        <v>0.4465808868408203</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.130556106567383</v>
+        <v>1.382342100143433</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.434343814849854</v>
+        <v>1.446505069732666</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3874,10 +3874,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4400463104248047</v>
+        <v>0.4351627826690674</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3890,10 +3890,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4340131282806396</v>
+        <v>0.4725050926208496</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3906,7 +3906,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.32262396812439</v>
+        <v>1.402453899383545</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3922,10 +3922,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7421600818634033</v>
+        <v>1.379585742950439</v>
       </c>
       <c r="D5" t="n">
-        <v>165.08</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="6">
@@ -3938,10 +3938,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4484720230102539</v>
+        <v>0.4219851493835449</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3954,10 +3954,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4290359020233154</v>
+        <v>0.4414730072021484</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3970,7 +3970,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.285110712051392</v>
+        <v>1.384632110595703</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3986,7 +3986,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.314404249191284</v>
+        <v>1.509144067764282</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.561121940612793</v>
+        <v>0.4587001800537109</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4433119297027588</v>
+        <v>0.4281010627746582</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4034,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.276007890701294</v>
+        <v>1.364727020263672</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4050,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.308113813400269</v>
+        <v>1.453809022903442</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4066,10 +4066,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4629271030426025</v>
+        <v>0.4224817752838135</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -4082,10 +4082,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4270977973937988</v>
+        <v>0.4331440925598145</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -4098,10 +4098,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.160422801971436</v>
+        <v>1.232083797454834</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -4114,10 +4114,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.347471237182617</v>
+        <v>1.408010959625244</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -4130,10 +4130,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.427711009979248</v>
+        <v>0.4692161083221436</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -4146,10 +4146,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4449191093444824</v>
+        <v>0.498032808303833</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -4162,10 +4162,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.364036083221436</v>
+        <v>1.489850044250488</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -4178,10 +4178,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.383439064025879</v>
+        <v>1.462140083312988</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5541560649871826</v>
+        <v>0.4398143291473389</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4868202209472656</v>
+        <v>0.4467556476593018</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.194723129272461</v>
+        <v>1.437471151351929</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.390738010406494</v>
+        <v>1.407713890075684</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -4299,10 +4299,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4509167671203613</v>
+        <v>0.4377617835998535</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -4315,10 +4315,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4419560432434082</v>
+        <v>0.5527091026306152</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -4331,7 +4331,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.363032102584839</v>
+        <v>1.550916194915771</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -4347,7 +4347,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.331855058670044</v>
+        <v>1.463319778442383</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -4363,10 +4363,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4557540416717529</v>
+        <v>0.4261579513549805</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -4379,10 +4379,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5586197376251221</v>
+        <v>0.4621851444244385</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -4395,7 +4395,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.344339847564697</v>
+        <v>1.48151969909668</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -4411,7 +4411,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.307868003845215</v>
+        <v>1.399175882339478</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4416027069091797</v>
+        <v>0.4303510189056396</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4387800693511963</v>
+        <v>0.4284758567810059</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.400370121002197</v>
+        <v>1.397664070129395</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4475,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.403037071228027</v>
+        <v>1.373817205429077</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4491,10 +4491,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4326746463775635</v>
+        <v>0.4671430587768555</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -4507,10 +4507,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5363669395446777</v>
+        <v>0.4432730674743652</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -4523,10 +4523,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.42585277557373</v>
+        <v>1.416688919067383</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -4539,10 +4539,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.469180822372437</v>
+        <v>1.448715925216675</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -4555,10 +4555,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4380760192871094</v>
+        <v>0.460360050201416</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -4571,10 +4571,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4264900684356689</v>
+        <v>0.4424829483032227</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -4587,10 +4587,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.096105098724365</v>
+        <v>1.454834222793579</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -4603,10 +4603,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.407942771911621</v>
+        <v>1.476202011108398</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4517617225646973</v>
+        <v>0.4404101371765137</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.453747034072876</v>
+        <v>0.4429550170898438</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.336300134658813</v>
+        <v>1.398955106735229</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.486856937408447</v>
+        <v>1.416764259338379</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
